--- a/REPORT/DAILY REPORT ACTIVITY DEV-Wahyu 2021.xlsx
+++ b/REPORT/DAILY REPORT ACTIVITY DEV-Wahyu 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="639">
   <si>
     <t>Nama</t>
   </si>
@@ -2473,17 +2473,653 @@
   <si>
     <t>Bugfix filter created at dan updated at</t>
   </si>
+  <si>
+    <t>Route Map Salesman</t>
+  </si>
+  <si>
+    <t>Filter, hierarki, show maps, API data salesman</t>
+  </si>
+  <si>
+    <t>1). Filter, hierarki, show maps, API data salesman</t>
+  </si>
+  <si>
+    <t>2). Total Rute dan Koordinat</t>
+  </si>
+  <si>
+    <t>Total Rute dan Koordinat</t>
+  </si>
+  <si>
+    <t>Bugfix data yang tampil belum sesuai hierarki</t>
+  </si>
+  <si>
+    <t>Bugfix outlet NOO nama tidak muncul</t>
+  </si>
+  <si>
+    <t>Bugfix jika filter tanggal sama, data tidak muncul</t>
+  </si>
+  <si>
+    <t>Bugfix code header dan detail tidak sama</t>
+  </si>
+  <si>
+    <t>Tambah kolom date transaction</t>
+  </si>
+  <si>
+    <t>Bugfix filter date untuk menampilkan data sample</t>
+  </si>
+  <si>
+    <t>Bugfix lokasi longitude awal - akhir dan latitude awal - akhir tidak muncul</t>
+  </si>
+  <si>
+    <t>Tambahkan tipe operasi sales di filter salesman</t>
+  </si>
+  <si>
+    <t>Bugfix filter salesman yang ditampilkan yang tipe canvas, TO tidak perlu</t>
+  </si>
+  <si>
+    <t>Outlet type NOO tidak muncul nama dan kodenya</t>
+  </si>
+  <si>
+    <t>Outlet type NOO dianggap sebagai kode outlet aneka pembeli yang kode outlet dkds nya 9999</t>
+  </si>
+  <si>
+    <t>Bugfix filter list RO SFA</t>
+  </si>
+  <si>
+    <t>Tampilkan No. RO dkds di RO SFA dan tambahkan link agar bisa di akses</t>
+  </si>
+  <si>
+    <t>Filter salesman di multiple post RO dibatasi untuk salesman yang status aktif dan reguler=1</t>
+  </si>
+  <si>
+    <t>Filter salesman di list RO dibatasi untuk type salesman saja dan sesuai hierarki user loginnya</t>
+  </si>
+  <si>
+    <t>Tambah tanggal transaksi, tanggal RO ambil dari tanggal gudang</t>
+  </si>
+  <si>
+    <t>RO bisa di post 2x (casenya multiple post dan post by one) dan terbentuk 2 RO. Harusnya gak boleh</t>
+  </si>
+  <si>
+    <t>Tambah tgl transaksi dari APK di list RO</t>
+  </si>
+  <si>
+    <t>Logs query create RO</t>
+  </si>
+  <si>
+    <t>Login user distributor, salesman tidak muncul</t>
+  </si>
+  <si>
+    <t>Data yang muncul tidak sesuai (case week 1 hari senin, data tampil 38, padahal cuma ada 31 toko)</t>
+  </si>
+  <si>
+    <t>14 Day</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Build gradle, config manifest, navigation</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Login layout</t>
+  </si>
+  <si>
+    <t>FIFI</t>
+  </si>
+  <si>
+    <t>Proses login masuk ke dashboard app</t>
+  </si>
+  <si>
+    <t>Proses login masuk ke dashboard app(Login VM, Repository, Mapper, Response)</t>
+  </si>
+  <si>
+    <t>Timbang KB</t>
+  </si>
+  <si>
+    <t>Design form create tiket timbang KB</t>
+  </si>
+  <si>
+    <t>VM, repository, mapper, datastore, response</t>
+  </si>
+  <si>
+    <t>Get data partai, jenis, supplier (dummy)</t>
+  </si>
+  <si>
+    <t>Layout print preview</t>
+  </si>
+  <si>
+    <t>Tambahan layout print preview</t>
+  </si>
+  <si>
+    <t>Validation simpan tiket</t>
+  </si>
+  <si>
+    <t>Data ambil dari ar bayar, bukan tagihan</t>
+  </si>
+  <si>
+    <t>Gudang, gudang tujuan, no sj dan tgl sj tidak perlu ditampilkan. Tambahkan kolom foto</t>
+  </si>
+  <si>
+    <t>Filter date di multiple post ambil dari tgl_transaksi_android</t>
+  </si>
+  <si>
+    <t>Salah simpan post by pada saat di DKDS</t>
+  </si>
+  <si>
+    <t>Salesman yang ditampilkan yang tipe canvas dan reguler == yes</t>
+  </si>
+  <si>
+    <t>Nilai transaksi canvas ditampilkan di kolom penjualan tunai, sedangkan tagihan tunai ambil dari pembayaran tunai tagihan yang dibawa salesman</t>
+  </si>
+  <si>
+    <t>Bugfix data retur (gagal simpan dari APK ke server SFA)</t>
+  </si>
+  <si>
+    <t>Tambah filter date di ar bayar</t>
+  </si>
+  <si>
+    <t>Hide detail list approval pada saat pertama load</t>
+  </si>
+  <si>
+    <t>Tampilkan total keseluruhan nominal dan user amount di header list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Approval setoran bank tidak perlu setting approval. User yang diberi akses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> otomatis bisa melakukan approve</t>
+    </r>
+  </si>
+  <si>
+    <t>Kolom nominal dikosongkan, kolom invoice berisi no order sfa, used amount diisi nilai order</t>
+  </si>
+  <si>
+    <t>Mapper (login dan timbang), revisi data store dan repository (login dan timbang)</t>
+  </si>
+  <si>
+    <t>Mapper, Repository, Data Store, Response, Domain (Data Supplier dan Location)</t>
+  </si>
+  <si>
+    <t>Fragment dan VM (Get data supplier dan location menggunakan text autocomplete )</t>
+  </si>
+  <si>
+    <t>Jika di multiple post, salah satu RO sudah di post manual, maka semua proses di rollback</t>
+  </si>
+  <si>
+    <t>Tambahkan filter user block di list salesman</t>
+  </si>
+  <si>
+    <t>Implementasi API login websukro ke Android</t>
+  </si>
+  <si>
+    <t>Simpan username dan password dalam shared preference (utk remember biar gak bolak-balik login saat keluar app)</t>
+  </si>
+  <si>
+    <t>Simpan data timbang ke server PP</t>
+  </si>
+  <si>
+    <t>NO RO yang ditampilkan hanya NO RO SFA</t>
+  </si>
+  <si>
+    <t>Untuk outlet NOO, tampilkan outlet `Aneka Pembeli` yang ada kode titiknya</t>
+  </si>
+  <si>
+    <t>Cek cover salesman pada saat post RO ke DKDS</t>
+  </si>
+  <si>
+    <t>Faktur distributor tidak tampil, padahal data RO sudah di proses di DKDS</t>
+  </si>
+  <si>
+    <t>Tampilkan foto di view</t>
+  </si>
+  <si>
+    <t>Compare Coverage</t>
+  </si>
+  <si>
+    <t>Pin diganti warnanya yang tidak segradasi, membingungkan</t>
+  </si>
+  <si>
+    <t>Detail outlet dan distributor muncul jika hover ke pinnya saja</t>
+  </si>
+  <si>
+    <t>Filter samakan seperti menu report</t>
+  </si>
+  <si>
+    <t>Filter salesman munculkan yang aktif dan regular saja</t>
+  </si>
+  <si>
+    <t>Rubah struktur table (jadikan header dan detail)</t>
+  </si>
+  <si>
+    <t>Send data setoran bank dari Android ke Server SFA</t>
+  </si>
+  <si>
+    <t>Filter salesman hanya yang aktif dan regular saja</t>
+  </si>
+  <si>
+    <t>Data tidak muncul di week 1,2</t>
+  </si>
+  <si>
+    <t>Search by outlet, data tidak muncul (case hanya utk outlet aneka pembeli)</t>
+  </si>
+  <si>
+    <t>Insert tanggal_import_data di dkds (== tgl_transaksi_android)</t>
+  </si>
+  <si>
+    <t>Bugfix pengecekan cover salesman pada saat post RO SFA ke DKDS (case ini hanya pada outlet aneka pembeli)</t>
+  </si>
+  <si>
+    <t>Untuk outlet NOO, kode yang disimpan di table transaksi DKDS, simpan dengan kode aneka pembeli</t>
+  </si>
+  <si>
+    <t>Bugfix query jika is non route 0 or null</t>
+  </si>
+  <si>
+    <t>Tampilkan list timbang (range 2 minggu)</t>
+  </si>
+  <si>
+    <t>View detail and print data timbang</t>
+  </si>
+  <si>
+    <t>Tampilkan list timbang (range 7 Hari)</t>
+  </si>
+  <si>
+    <t>Print struk dari APK ke print PATI</t>
+  </si>
+  <si>
+    <t>Filter data</t>
+  </si>
+  <si>
+    <t>15 Day</t>
+  </si>
+  <si>
+    <t>Bugfix show kunjungan route berdasarkan week dan day</t>
+  </si>
+  <si>
+    <t>Bugfix rute kunjungan, data ambil dari route DKDS, bukan SFA</t>
+  </si>
+  <si>
+    <t>Bugfix filter hierarki untuk user HOR</t>
+  </si>
+  <si>
+    <t>Bikin fungsi untuk filter list hierarki</t>
+  </si>
+  <si>
+    <t>Bugfix event onmouse out/onmouse over pada saat menampilkan marker map</t>
+  </si>
+  <si>
+    <t>Pengecekan apabila summary ipts dan iptg tidak ditemukan, set 0</t>
+  </si>
+  <si>
+    <t>Bugfix view data setoran bank (abis merombak table)</t>
+  </si>
+  <si>
+    <t>Bugfix send approval</t>
+  </si>
+  <si>
+    <t>Bugfix nilai nominal di header</t>
+  </si>
+  <si>
+    <t>Hilangkan kolom used amount</t>
+  </si>
+  <si>
+    <t>Bugfix saat simpan id_bayar di setoran detail</t>
+  </si>
+  <si>
+    <t>Nilai transfer bank tampil apabila dokument setoran bank sudah di approve, jika belum kosongkan</t>
+  </si>
+  <si>
+    <t>Jika post baca ulang master produk, master harga, master outlet</t>
+  </si>
+  <si>
+    <t>Pengecekan jika cover == 1, bisa post (Route Sales)</t>
+  </si>
+  <si>
+    <t>Tambahkan outlet kode, salesman id dan no ro di pengecekan pengcoveran salemsman</t>
+  </si>
+  <si>
+    <t>Data list yang tampil belum sesuai dengan hierarki user yang login</t>
+  </si>
+  <si>
+    <t>Bugfix nilai penjualan tunai Z3SC dari nilai order SFA pada hari itu</t>
+  </si>
+  <si>
+    <t>Bugfix nilai retur tunai Z3RC dari nilai retur APK pada hari itu</t>
+  </si>
+  <si>
+    <t>Bugfix filter list data timbang (tambahkan pencarian by nomer tiket, supplier, asal dan effective date)</t>
+  </si>
+  <si>
+    <t>FIFI / MAWAR</t>
+  </si>
+  <si>
+    <t>Bugfix format nopol / kasi validasi kalau format ke 2 dan 3 kosong, tidak bisa simpan</t>
+  </si>
+  <si>
+    <t>Tambahkan created at, effective date di list</t>
+  </si>
+  <si>
+    <t>Bugfix saat simpan user id di table weighing kb</t>
+  </si>
+  <si>
+    <t>Tambah update versi aplikasi</t>
+  </si>
+  <si>
+    <t>API WEBSUKRO</t>
+  </si>
+  <si>
+    <t>API untuk mengecek versi APK</t>
+  </si>
+  <si>
+    <t>Toko yang ditampilkan yang ada data absensi salesman nya saja</t>
+  </si>
+  <si>
+    <t>Toko azkia bertanda bulet kuning (karena ada transaksi tetapi non rute), Toko idang / noor rahman EC dan rute bertanda bintang biru</t>
+  </si>
+  <si>
+    <t>Toko syifa 2 (tgl 9/06) order diluar koordinat, tetapi belum diberi tanda !</t>
+  </si>
+  <si>
+    <t>Tambah pengecekan untuk type outlet NOO (jadikan aneka pembeli)</t>
+  </si>
+  <si>
+    <t>Toko yang sudah melakukan pembayaran, belum dikasih tanda collection</t>
+  </si>
+  <si>
+    <t>Tampilkan date transaction</t>
+  </si>
+  <si>
+    <t>Bugfix kolom omzet QTY dihilangkan (view, export excel dan pdf)</t>
+  </si>
+  <si>
+    <t>Bugfix tampilkan produk kompetitor di view, export excel dan pdf</t>
+  </si>
+  <si>
+    <t>Bugfix kolom produk kasi `Product DKDS`</t>
+  </si>
+  <si>
+    <t>Report Kompetitor New Activity</t>
+  </si>
+  <si>
+    <t>Bugfix nama menu `New Activity`, bukan `New Product`, tampilkan nama new activity di report</t>
+  </si>
+  <si>
+    <t>Bugfix get data hierarki di header export excel, pdf, view</t>
+  </si>
+  <si>
+    <t>Bugfix bayar pakai transfer, tapi masuk ke kolom amount cheq</t>
+  </si>
+  <si>
+    <t>Bugfix error pengecekan pricelist_active pada saat post ke RO DKDS</t>
+  </si>
+  <si>
+    <t>Bugfix filter tanggal ambil dari kolom date, yang di tampilkan date_setoran, tampilkan juga tgl transaksi dari APK</t>
+  </si>
+  <si>
+    <t>Bugfix data ambil dari Invoice yang tgl SO nya sesuai dengan range</t>
+  </si>
+  <si>
+    <t>Bugfix tampilkan data invoice yang belum dibayar di DKDS, kemudian dibandingkan dengan kredit limit outletnya</t>
+  </si>
+  <si>
+    <t>Bugfix error load data (case DB mongo mati / ke restart)</t>
+  </si>
+  <si>
+    <t>Bugfix data inquiry ambil dari transaksi ro sfa</t>
+  </si>
+  <si>
+    <t>Bugfix data inqury realisasi ambil dari ro sfa yang sudah di invoicekan di DKDS</t>
+  </si>
+  <si>
+    <t>Bugfix kolom date yang di tampilkan date transaction</t>
+  </si>
+  <si>
+    <t>Bugfix tanda collection (warna hijau) hanya untuk tagihan collection</t>
+  </si>
+  <si>
+    <t>Bugfix penjualan tunai di dapat dari total jual + ppn, group by date</t>
+  </si>
+  <si>
+    <t>Bugfix tagihan giro, tagihan tunai dan tagihan retur</t>
+  </si>
+  <si>
+    <t>Bugfix untuk outlet noo, nama yang di tampilkan nama NOO nya</t>
+  </si>
+  <si>
+    <t>No. Order selalu ke parsing menjadi seperti ini 2,02104E+11 (export excel)</t>
+  </si>
+  <si>
+    <t>Bugfix error load data (case karena outlet noo not found)</t>
+  </si>
+  <si>
+    <t>Bugfix nilai kredit limit</t>
+  </si>
+  <si>
+    <t>Bugfix menentukan out of area, collection failed, collection success</t>
+  </si>
+  <si>
+    <t>Bugfix filter all report untuk user sa hor, owner dan om</t>
+  </si>
+  <si>
+    <t>Tambahkan kolom produk kompetitor. Di table tambahkan kolom produk kompetitor</t>
+  </si>
+  <si>
+    <t>Bugfix total persalesman belum sesuai</t>
+  </si>
+  <si>
+    <t>Bugfix kolom RO DKDS hilang, NO RO DKDS tidak sesuai dengan tanggal gudang, post outlet NOO gagal</t>
+  </si>
+  <si>
+    <t>Bugfix nilai target value insentive</t>
+  </si>
+  <si>
+    <t>Bugfix konflikan coding antara local dan beta (error git .MERGE.swp, error .git/.INDEX.lock</t>
+  </si>
+  <si>
+    <t>Bugfix pengecekan cover outlet ketika post RO ke DKDS</t>
+  </si>
+  <si>
+    <t>Bugfix indicator tidak bisa muncul di export excel</t>
+  </si>
+  <si>
+    <t>Bugfix jika is_competitor == 1, maka yang ditampilkan product kompetitor, jika 0 yang ditampilkan product dkds</t>
+  </si>
+  <si>
+    <t>Bugfix no ro dkds harusnya ngikut tanggal gudang</t>
+  </si>
+  <si>
+    <t>Tambahkan table pengaturan user access level</t>
+  </si>
+  <si>
+    <t>Tambahkan export to excel dan pdf</t>
+  </si>
+  <si>
+    <t>Bugfix user type ambil dari API (yang sekarang harcode)</t>
+  </si>
+  <si>
+    <t>Bugfix outlet NOO kode dan nama tidak muncul</t>
+  </si>
+  <si>
+    <t>Bugfix invoice in amount di dapat dari invoice dkds atas orderan sfa</t>
+  </si>
+  <si>
+    <t>Bugfix di bagian outlet kolom target, achieve dan invoice achieve di kosongkan</t>
+  </si>
+  <si>
+    <t>Bugfix target salah, yang ditampilkan data S2 all</t>
+  </si>
+  <si>
+    <t>Bugfix nilai order + ppn dan invoice + ppn</t>
+  </si>
+  <si>
+    <t>Bugfix user access forbidden di DKDS Distributor (all user)</t>
+  </si>
+  <si>
+    <t>Bugfix result data masih muncul data dari distributor lain</t>
+  </si>
+  <si>
+    <t>Bugfix pecah nilai invoice untuk aneka pembeli</t>
+  </si>
+  <si>
+    <t>Bugfix filter tgl dropping</t>
+  </si>
+  <si>
+    <t>Bugfix tambah pin lokasi, status dropping dan detail transaksi</t>
+  </si>
+  <si>
+    <t>Bugfix tambah kolom foto dan tampilkan di view</t>
+  </si>
+  <si>
+    <t>Bugfix data export to excel</t>
+  </si>
+  <si>
+    <t>Bugfix sync data (kirim ke server SFA)</t>
+  </si>
+  <si>
+    <t>Bugfix list salesman tidak muncul di user SA (Banjarmasin)</t>
+  </si>
+  <si>
+    <t>Bugfix query left join master code (salah penamaan alias)</t>
+  </si>
+  <si>
+    <t>Bugfix show data by hierarki user login (untuk user HOR dan TSS)</t>
+  </si>
+  <si>
+    <t>Bugfix nilai nominal persalesman, perdokument dan per outlet</t>
+  </si>
+  <si>
+    <t>Bugfix filter tgl dropping diganti tgl transaksi android dan tambah kolom baru (tgl_transaksi_android)</t>
+  </si>
+  <si>
+    <t>Bugfix nilai amount check, amount giro dan amount transfer</t>
+  </si>
+  <si>
+    <t>Bugfix beberapa nama outlet tidak muncul (case ambigious outlet_code)</t>
+  </si>
+  <si>
+    <t>Bugfix date collection (kurang sort by id desc)</t>
+  </si>
+  <si>
+    <t>Bugfix error query untuk user HOGT filter TSS</t>
+  </si>
+  <si>
+    <t>Bugfix error data saat login sebagai owner banjarmasin</t>
+  </si>
+  <si>
+    <t>Bugfix tambahkan query untuk melihat data sebagai owner</t>
+  </si>
+  <si>
+    <t>Bugfix tampilan table data dibuat sub header karena banyak kolom</t>
+  </si>
+  <si>
+    <t>Bugfix data yang di tampilkan yaitu data yang sudah di proses ke DKDS</t>
+  </si>
+  <si>
+    <t>Bugfix nominal tidak sesuai dengan transaksi SFA</t>
+  </si>
+  <si>
+    <t>Outlet SFA</t>
+  </si>
+  <si>
+    <t>Bugfix akses CRUDA</t>
+  </si>
+  <si>
+    <t>Bugfix filter hierarki SA HOR masih belum sesuai dengan yang dicover</t>
+  </si>
+  <si>
+    <t>Bugfix filter Owner/OM masih belum sesuai region dan titiknya</t>
+  </si>
+  <si>
+    <t>Bugfix export to excel</t>
+  </si>
+  <si>
+    <t>Bugfix updated tgl transaksi android dan reason id (kolom tambahan)</t>
+  </si>
+  <si>
+    <t>Bugfix tampilkan reason tolak, misal toko tutup / salah item</t>
+  </si>
+  <si>
+    <t>Bugfix tampilkan nominal total invoice, jika terima sesuaikan dengan nilai invoice, jika tolak maka 0</t>
+  </si>
+  <si>
+    <t>Bugfix jika ada item yang sama dalam satu invoice, di sum QTY nya</t>
+  </si>
+  <si>
+    <t>Bugfix caption QTY kirim = QTY Order, QTY Order = QTY Terima</t>
+  </si>
+  <si>
+    <t>Tukar Guling</t>
+  </si>
+  <si>
+    <t>Create table tukar guling dan tukar guling detail, API untuk simpan data tukar guling dari APK ke server SFA</t>
+  </si>
+  <si>
+    <t>API dan Frontend show list, view data tukar guling</t>
+  </si>
+  <si>
+    <t>Post to server DKDS</t>
+  </si>
+  <si>
+    <t>Stock Dropping</t>
+  </si>
+  <si>
+    <t>Bugfix kalau status tolak, bisa di proses lagi di hari berikutnya</t>
+  </si>
+  <si>
+    <t>Bugfix salesman tidak ada order di SFA, tapi nilai invoicenya muncul</t>
+  </si>
+  <si>
+    <t>Bugfix pengecekan untuk user OWNER</t>
+  </si>
+  <si>
+    <t>Bugfix untuk filter titik dan distributor di user OWNER</t>
+  </si>
+  <si>
+    <t>Bugfix problem innodb refused (disabled readonly innodb on mysql dan config di my.cnf)</t>
+  </si>
+  <si>
+    <t>Mempelajari dokumentasi API GATEWAY KONG dari Pak Eko</t>
+  </si>
+  <si>
+    <t>Explore kotlin (memahami alur SFA dari awal)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2525,8 +3161,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2540,10 +3177,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2554,17 +3191,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2579,6 +3216,58 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,14 +3283,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2610,62 +3291,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2703,7 +3339,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,37 +3381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2763,25 +3411,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2799,19 +3465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,37 +3501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2865,25 +3519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,20 +3622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3015,6 +3648,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3036,6 +3693,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3043,42 +3711,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3088,121 +3724,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3211,29 +3847,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3427,24 +4063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
@@ -3454,14 +4072,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3782,14 +4403,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R453"/>
+  <dimension ref="A1:R678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I440" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I664" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D457" sqref="D457"/>
+      <selection pane="bottomRight" activeCell="L673" sqref="L673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75"/>
@@ -3805,7 +4426,7 @@
     <col min="10" max="10" width="12.5733333333333" customWidth="true"/>
     <col min="11" max="11" width="17.28" customWidth="true"/>
     <col min="12" max="12" width="30" customWidth="true"/>
-    <col min="13" max="13" width="10.2866666666667" customWidth="true"/>
+    <col min="13" max="13" width="13.1333333333333" customWidth="true"/>
     <col min="14" max="14" width="13.7133333333333" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7891,7 +8512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" ht="69.75" spans="1:14">
+    <row r="150" ht="42.75" spans="1:14">
       <c r="A150" s="8">
         <v>26</v>
       </c>
@@ -15404,8 +16025,8 @@
       <c r="N421" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="Q421" s="71"/>
-      <c r="R421" s="72"/>
+      <c r="Q421" s="65"/>
+      <c r="R421" s="66"/>
     </row>
     <row r="422" ht="31.5" spans="1:18">
       <c r="A422" s="10"/>
@@ -15430,8 +16051,8 @@
       <c r="N422" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="O422" s="70"/>
-      <c r="R422" s="72"/>
+      <c r="O422" s="64"/>
+      <c r="R422" s="66"/>
     </row>
     <row r="423" ht="63" spans="1:14">
       <c r="A423" s="12"/>
@@ -16106,34 +16727,34 @@
       </c>
     </row>
     <row r="447" ht="31.5" spans="1:14">
-      <c r="A447" s="64">
+      <c r="A447" s="8">
         <v>84</v>
       </c>
-      <c r="B447" s="65">
+      <c r="B447" s="14">
         <v>44327</v>
       </c>
-      <c r="C447" s="65">
+      <c r="C447" s="14">
         <v>44327</v>
       </c>
-      <c r="D447" s="64" t="s">
+      <c r="D447" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E447" s="65">
+      <c r="E447" s="14">
         <v>44327</v>
       </c>
-      <c r="F447" s="65">
+      <c r="F447" s="14">
         <v>44327</v>
       </c>
-      <c r="G447" s="65">
+      <c r="G447" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H447" s="14">
         <v>44327</v>
       </c>
-      <c r="H447" s="65">
-        <v>44327</v>
-      </c>
-      <c r="I447" s="64" t="s">
+      <c r="I447" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J447" s="68" t="s">
+      <c r="J447" s="43" t="s">
         <v>25</v>
       </c>
       <c r="K447" s="46" t="s">
@@ -16150,16 +16771,16 @@
       </c>
     </row>
     <row r="448" ht="31.5" spans="1:14">
-      <c r="A448" s="66"/>
-      <c r="B448" s="67"/>
-      <c r="C448" s="67"/>
-      <c r="D448" s="66"/>
-      <c r="E448" s="67"/>
-      <c r="F448" s="67"/>
-      <c r="G448" s="67"/>
-      <c r="H448" s="67"/>
-      <c r="I448" s="66"/>
-      <c r="J448" s="69"/>
+      <c r="A448" s="10"/>
+      <c r="B448" s="15"/>
+      <c r="C448" s="15"/>
+      <c r="D448" s="10"/>
+      <c r="E448" s="15"/>
+      <c r="F448" s="15"/>
+      <c r="G448" s="15"/>
+      <c r="H448" s="15"/>
+      <c r="I448" s="10"/>
+      <c r="J448" s="44"/>
       <c r="K448" s="46" t="s">
         <v>137</v>
       </c>
@@ -16174,16 +16795,16 @@
       </c>
     </row>
     <row r="449" ht="31.5" spans="1:14">
-      <c r="A449" s="66"/>
-      <c r="B449" s="67"/>
-      <c r="C449" s="67"/>
-      <c r="D449" s="66"/>
-      <c r="E449" s="67"/>
-      <c r="F449" s="67"/>
-      <c r="G449" s="67"/>
-      <c r="H449" s="67"/>
-      <c r="I449" s="66"/>
-      <c r="J449" s="69"/>
+      <c r="A449" s="10"/>
+      <c r="B449" s="15"/>
+      <c r="C449" s="15"/>
+      <c r="D449" s="10"/>
+      <c r="E449" s="15"/>
+      <c r="F449" s="15"/>
+      <c r="G449" s="15"/>
+      <c r="H449" s="15"/>
+      <c r="I449" s="10"/>
+      <c r="J449" s="44"/>
       <c r="K449" s="46" t="s">
         <v>141</v>
       </c>
@@ -16198,16 +16819,16 @@
       </c>
     </row>
     <row r="450" ht="31.5" spans="1:14">
-      <c r="A450" s="73"/>
-      <c r="B450" s="74"/>
-      <c r="C450" s="74"/>
-      <c r="D450" s="73"/>
-      <c r="E450" s="74"/>
-      <c r="F450" s="74"/>
-      <c r="G450" s="74"/>
-      <c r="H450" s="74"/>
-      <c r="I450" s="73"/>
-      <c r="J450" s="75"/>
+      <c r="A450" s="12"/>
+      <c r="B450" s="16"/>
+      <c r="C450" s="16"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="16"/>
+      <c r="F450" s="16"/>
+      <c r="G450" s="16"/>
+      <c r="H450" s="16"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="47"/>
       <c r="K450" s="46" t="s">
         <v>139</v>
       </c>
@@ -16222,55 +16843,6229 @@
       </c>
     </row>
     <row r="451" spans="1:14">
-      <c r="A451" s="19"/>
-      <c r="B451" s="20"/>
-      <c r="C451" s="20"/>
-      <c r="D451" s="19"/>
-      <c r="E451" s="20"/>
-      <c r="F451" s="20"/>
-      <c r="G451" s="19"/>
-      <c r="H451" s="20"/>
-      <c r="I451" s="19"/>
-      <c r="J451" s="38"/>
-      <c r="K451" s="46"/>
-      <c r="L451" s="31"/>
-      <c r="M451" s="19"/>
-      <c r="N451" s="19"/>
-    </row>
-    <row r="452" spans="1:14">
-      <c r="A452" s="19"/>
-      <c r="B452" s="20"/>
-      <c r="C452" s="20"/>
-      <c r="D452" s="19"/>
-      <c r="E452" s="20"/>
-      <c r="F452" s="20"/>
-      <c r="G452" s="19"/>
-      <c r="H452" s="20"/>
-      <c r="I452" s="19"/>
-      <c r="J452" s="38"/>
-      <c r="K452" s="46"/>
-      <c r="L452" s="31"/>
-      <c r="M452" s="19"/>
-      <c r="N452" s="19"/>
-    </row>
-    <row r="453" spans="1:14">
-      <c r="A453" s="19"/>
-      <c r="B453" s="20"/>
-      <c r="C453" s="20"/>
-      <c r="D453" s="19"/>
-      <c r="E453" s="20"/>
-      <c r="F453" s="20"/>
-      <c r="G453" s="19"/>
-      <c r="H453" s="20"/>
-      <c r="I453" s="19"/>
-      <c r="J453" s="38"/>
-      <c r="K453" s="46"/>
-      <c r="L453" s="31"/>
-      <c r="M453" s="19"/>
-      <c r="N453" s="19"/>
+      <c r="A451" s="17"/>
+      <c r="B451" s="18"/>
+      <c r="C451" s="18"/>
+      <c r="D451" s="18"/>
+      <c r="E451" s="18"/>
+      <c r="F451" s="18"/>
+      <c r="G451" s="18"/>
+      <c r="H451" s="18"/>
+      <c r="I451" s="18"/>
+      <c r="J451" s="18"/>
+      <c r="K451" s="18"/>
+      <c r="L451" s="18"/>
+      <c r="M451" s="18"/>
+      <c r="N451" s="49"/>
+    </row>
+    <row r="452" ht="31.5" spans="1:14">
+      <c r="A452" s="19">
+        <v>85</v>
+      </c>
+      <c r="B452" s="20">
+        <v>44334</v>
+      </c>
+      <c r="C452" s="20">
+        <v>44334</v>
+      </c>
+      <c r="D452" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E452" s="20">
+        <v>44334</v>
+      </c>
+      <c r="F452" s="20">
+        <v>44336</v>
+      </c>
+      <c r="G452" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H452" s="20">
+        <v>44336</v>
+      </c>
+      <c r="I452" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J452" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K452" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="L452" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="M452" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N452" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="453" ht="31.5" spans="1:14">
+      <c r="A453" s="8">
+        <v>86</v>
+      </c>
+      <c r="B453" s="14">
+        <v>44335</v>
+      </c>
+      <c r="C453" s="14">
+        <v>44334</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E453" s="14">
+        <v>44334</v>
+      </c>
+      <c r="F453" s="14">
+        <v>44336</v>
+      </c>
+      <c r="G453" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H453" s="14">
+        <v>44336</v>
+      </c>
+      <c r="I453" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J453" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K453" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="L453" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="M453" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N453" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
+      <c r="A454" s="12"/>
+      <c r="B454" s="16"/>
+      <c r="C454" s="16"/>
+      <c r="D454" s="12"/>
+      <c r="E454" s="16"/>
+      <c r="F454" s="16"/>
+      <c r="G454" s="12"/>
+      <c r="H454" s="16"/>
+      <c r="I454" s="12"/>
+      <c r="J454" s="47"/>
+      <c r="K454" s="36"/>
+      <c r="L454" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="M454" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N454" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
+      <c r="A455" s="8">
+        <v>87</v>
+      </c>
+      <c r="B455" s="14">
+        <v>44336</v>
+      </c>
+      <c r="C455" s="20">
+        <v>44334</v>
+      </c>
+      <c r="D455" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E455" s="20">
+        <v>44334</v>
+      </c>
+      <c r="F455" s="14">
+        <v>44336</v>
+      </c>
+      <c r="G455" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H455" s="14">
+        <v>44336</v>
+      </c>
+      <c r="I455" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J455" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K455" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="L455" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="M455" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N455" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="456" ht="31.5" spans="1:14">
+      <c r="A456" s="10"/>
+      <c r="B456" s="15"/>
+      <c r="C456" s="14">
+        <v>44336</v>
+      </c>
+      <c r="D456" s="10"/>
+      <c r="E456" s="14">
+        <v>44336</v>
+      </c>
+      <c r="F456" s="15"/>
+      <c r="G456" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H456" s="15"/>
+      <c r="I456" s="10"/>
+      <c r="J456" s="44"/>
+      <c r="K456" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="L456" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="M456" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N456" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
+      <c r="A457" s="10"/>
+      <c r="B457" s="15"/>
+      <c r="C457" s="15"/>
+      <c r="D457" s="10"/>
+      <c r="E457" s="15"/>
+      <c r="F457" s="15"/>
+      <c r="G457" s="10"/>
+      <c r="H457" s="15"/>
+      <c r="I457" s="10"/>
+      <c r="J457" s="44"/>
+      <c r="K457" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="L457" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="M457" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N457" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="458" ht="31.5" spans="1:14">
+      <c r="A458" s="10"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="15"/>
+      <c r="D458" s="10"/>
+      <c r="E458" s="15"/>
+      <c r="F458" s="15"/>
+      <c r="G458" s="10"/>
+      <c r="H458" s="15"/>
+      <c r="I458" s="10"/>
+      <c r="J458" s="44"/>
+      <c r="K458" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L458" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="M458" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N458" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="459" ht="31.5" spans="1:14">
+      <c r="A459" s="10"/>
+      <c r="B459" s="15"/>
+      <c r="C459" s="15"/>
+      <c r="D459" s="10"/>
+      <c r="E459" s="15"/>
+      <c r="F459" s="15"/>
+      <c r="G459" s="10"/>
+      <c r="H459" s="15"/>
+      <c r="I459" s="10"/>
+      <c r="J459" s="44"/>
+      <c r="K459" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L459" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="M459" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N459" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
+      <c r="A460" s="10"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="15"/>
+      <c r="D460" s="10"/>
+      <c r="E460" s="15"/>
+      <c r="F460" s="15"/>
+      <c r="G460" s="10"/>
+      <c r="H460" s="15"/>
+      <c r="I460" s="10"/>
+      <c r="J460" s="44"/>
+      <c r="K460" s="35"/>
+      <c r="L460" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="M460" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N460" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="461" ht="31.5" spans="1:14">
+      <c r="A461" s="10"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="15"/>
+      <c r="D461" s="10"/>
+      <c r="E461" s="15"/>
+      <c r="F461" s="15"/>
+      <c r="G461" s="10"/>
+      <c r="H461" s="15"/>
+      <c r="I461" s="10"/>
+      <c r="J461" s="44"/>
+      <c r="K461" s="36"/>
+      <c r="L461" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="M461" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N461" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="462" ht="31.5" spans="1:14">
+      <c r="A462" s="10"/>
+      <c r="B462" s="15"/>
+      <c r="C462" s="15"/>
+      <c r="D462" s="10"/>
+      <c r="E462" s="15"/>
+      <c r="F462" s="15"/>
+      <c r="G462" s="10"/>
+      <c r="H462" s="15"/>
+      <c r="I462" s="10"/>
+      <c r="J462" s="44"/>
+      <c r="K462" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L462" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="M462" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N462" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="463" ht="31.5" spans="1:14">
+      <c r="A463" s="10"/>
+      <c r="B463" s="15"/>
+      <c r="C463" s="15"/>
+      <c r="D463" s="10"/>
+      <c r="E463" s="15"/>
+      <c r="F463" s="15"/>
+      <c r="G463" s="10"/>
+      <c r="H463" s="15"/>
+      <c r="I463" s="10"/>
+      <c r="J463" s="44"/>
+      <c r="K463" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L463" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="M463" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N463" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="464" ht="47.25" spans="1:14">
+      <c r="A464" s="12"/>
+      <c r="B464" s="16"/>
+      <c r="C464" s="16"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="16"/>
+      <c r="F464" s="16"/>
+      <c r="G464" s="12"/>
+      <c r="H464" s="16"/>
+      <c r="I464" s="12"/>
+      <c r="J464" s="47"/>
+      <c r="K464" s="36"/>
+      <c r="L464" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="M464" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N464" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="465" ht="31.5" spans="1:14">
+      <c r="A465" s="8">
+        <v>89</v>
+      </c>
+      <c r="B465" s="14">
+        <v>44337</v>
+      </c>
+      <c r="C465" s="14">
+        <v>44337</v>
+      </c>
+      <c r="D465" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E465" s="14">
+        <v>44337</v>
+      </c>
+      <c r="F465" s="14">
+        <v>44337</v>
+      </c>
+      <c r="G465" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H465" s="14">
+        <v>44337</v>
+      </c>
+      <c r="I465" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J465" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K465" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="L465" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="M465" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N465" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="466" ht="47.25" spans="1:14">
+      <c r="A466" s="10"/>
+      <c r="B466" s="15"/>
+      <c r="C466" s="15"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="15"/>
+      <c r="F466" s="15"/>
+      <c r="G466" s="10"/>
+      <c r="H466" s="15"/>
+      <c r="I466" s="10"/>
+      <c r="J466" s="44"/>
+      <c r="K466" s="67"/>
+      <c r="L466" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="M466" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N466" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
+      <c r="A467" s="10"/>
+      <c r="B467" s="15"/>
+      <c r="C467" s="15"/>
+      <c r="D467" s="10"/>
+      <c r="E467" s="15"/>
+      <c r="F467" s="15"/>
+      <c r="G467" s="10"/>
+      <c r="H467" s="15"/>
+      <c r="I467" s="10"/>
+      <c r="J467" s="44"/>
+      <c r="K467" s="67"/>
+      <c r="L467" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="M467" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N467" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="468" ht="31.5" spans="1:14">
+      <c r="A468" s="10"/>
+      <c r="B468" s="15"/>
+      <c r="C468" s="15"/>
+      <c r="D468" s="10"/>
+      <c r="E468" s="15"/>
+      <c r="F468" s="15"/>
+      <c r="G468" s="10"/>
+      <c r="H468" s="15"/>
+      <c r="I468" s="10"/>
+      <c r="J468" s="44"/>
+      <c r="K468" s="67"/>
+      <c r="L468" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="M468" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N468" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="469" ht="47.25" spans="1:14">
+      <c r="A469" s="10"/>
+      <c r="B469" s="15"/>
+      <c r="C469" s="15"/>
+      <c r="D469" s="10"/>
+      <c r="E469" s="15"/>
+      <c r="F469" s="15"/>
+      <c r="G469" s="10"/>
+      <c r="H469" s="15"/>
+      <c r="I469" s="10"/>
+      <c r="J469" s="44"/>
+      <c r="K469" s="67"/>
+      <c r="L469" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="M469" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N469" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="470" ht="47.25" spans="1:14">
+      <c r="A470" s="10"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="15"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="15"/>
+      <c r="F470" s="15"/>
+      <c r="G470" s="10"/>
+      <c r="H470" s="15"/>
+      <c r="I470" s="10"/>
+      <c r="J470" s="44"/>
+      <c r="K470" s="67"/>
+      <c r="L470" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="M470" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N470" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="471" ht="31.5" spans="1:14">
+      <c r="A471" s="10"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="15"/>
+      <c r="D471" s="10"/>
+      <c r="E471" s="15"/>
+      <c r="F471" s="15"/>
+      <c r="G471" s="10"/>
+      <c r="H471" s="15"/>
+      <c r="I471" s="10"/>
+      <c r="J471" s="44"/>
+      <c r="K471" s="67"/>
+      <c r="L471" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="M471" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N471" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="472" ht="47.25" spans="1:14">
+      <c r="A472" s="12"/>
+      <c r="B472" s="16"/>
+      <c r="C472" s="16"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="16"/>
+      <c r="F472" s="16"/>
+      <c r="G472" s="12"/>
+      <c r="H472" s="16"/>
+      <c r="I472" s="12"/>
+      <c r="J472" s="47"/>
+      <c r="K472" s="63"/>
+      <c r="L472" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="M472" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N472" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
+      <c r="A473" s="17"/>
+      <c r="B473" s="18"/>
+      <c r="C473" s="18"/>
+      <c r="D473" s="18"/>
+      <c r="E473" s="18"/>
+      <c r="F473" s="18"/>
+      <c r="G473" s="18"/>
+      <c r="H473" s="18"/>
+      <c r="I473" s="18"/>
+      <c r="J473" s="18"/>
+      <c r="K473" s="18"/>
+      <c r="L473" s="18"/>
+      <c r="M473" s="18"/>
+      <c r="N473" s="49"/>
+    </row>
+    <row r="474" ht="31.5" spans="1:14">
+      <c r="A474" s="8">
+        <v>90</v>
+      </c>
+      <c r="B474" s="14">
+        <v>44340</v>
+      </c>
+      <c r="C474" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D474" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E474" s="14">
+        <v>44340</v>
+      </c>
+      <c r="F474" s="14">
+        <v>44340</v>
+      </c>
+      <c r="G474" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H474" s="14">
+        <v>44340</v>
+      </c>
+      <c r="I474" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J474" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K474" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L474" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="M474" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N474" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14">
+      <c r="A475" s="10"/>
+      <c r="B475" s="15"/>
+      <c r="C475" s="15"/>
+      <c r="D475" s="10"/>
+      <c r="E475" s="15"/>
+      <c r="F475" s="15"/>
+      <c r="G475" s="10"/>
+      <c r="H475" s="15"/>
+      <c r="I475" s="10"/>
+      <c r="J475" s="44"/>
+      <c r="K475" s="36"/>
+      <c r="L475" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="M475" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N475" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="476" ht="31.5" spans="1:14">
+      <c r="A476" s="10"/>
+      <c r="B476" s="15"/>
+      <c r="C476" s="15"/>
+      <c r="D476" s="10"/>
+      <c r="E476" s="15"/>
+      <c r="F476" s="15"/>
+      <c r="G476" s="10"/>
+      <c r="H476" s="15"/>
+      <c r="I476" s="10"/>
+      <c r="J476" s="44"/>
+      <c r="K476" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="L476" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="M476" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N476" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="477" ht="47.25" spans="1:14">
+      <c r="A477" s="12"/>
+      <c r="B477" s="16"/>
+      <c r="C477" s="16"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="16"/>
+      <c r="F477" s="16"/>
+      <c r="G477" s="12"/>
+      <c r="H477" s="16"/>
+      <c r="I477" s="12"/>
+      <c r="J477" s="47"/>
+      <c r="K477" s="36"/>
+      <c r="L477" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="M477" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N477" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="478" ht="31.5" spans="1:14">
+      <c r="A478" s="8">
+        <v>91</v>
+      </c>
+      <c r="B478" s="14">
+        <v>44341</v>
+      </c>
+      <c r="C478" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D478" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E478" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F478" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G478" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H478" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I478" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J478" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K478" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L478" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="M478" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N478" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14">
+      <c r="A479" s="10"/>
+      <c r="B479" s="15"/>
+      <c r="C479" s="15"/>
+      <c r="D479" s="10"/>
+      <c r="E479" s="15"/>
+      <c r="F479" s="15"/>
+      <c r="G479" s="10"/>
+      <c r="H479" s="15"/>
+      <c r="I479" s="10"/>
+      <c r="J479" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="K479" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="L479" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="M479" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N479" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14">
+      <c r="A480" s="12"/>
+      <c r="B480" s="16"/>
+      <c r="C480" s="16"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="16"/>
+      <c r="F480" s="16"/>
+      <c r="G480" s="12"/>
+      <c r="H480" s="16"/>
+      <c r="I480" s="12"/>
+      <c r="J480" s="47"/>
+      <c r="K480" s="36"/>
+      <c r="L480" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="M480" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N480" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="481" ht="47.25" spans="1:14">
+      <c r="A481" s="8">
+        <v>92</v>
+      </c>
+      <c r="B481" s="14">
+        <v>44343</v>
+      </c>
+      <c r="C481" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D481" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E481" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F481" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G481" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H481" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I481" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="J481" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="K481" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="L481" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="M481" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N481" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14">
+      <c r="A482" s="12"/>
+      <c r="B482" s="16"/>
+      <c r="C482" s="16"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="15"/>
+      <c r="G482" s="12"/>
+      <c r="H482" s="15"/>
+      <c r="I482" s="19"/>
+      <c r="J482" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="K482" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="L482" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="M482" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N482" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="483" ht="31.5" spans="1:14">
+      <c r="A483" s="8">
+        <v>93</v>
+      </c>
+      <c r="B483" s="14">
+        <v>44344</v>
+      </c>
+      <c r="C483" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D483" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E483" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F483" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G483" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H483" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I483" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="J483" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K483" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L483" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="M483" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N483" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="484" ht="31.5" spans="1:14">
+      <c r="A484" s="10"/>
+      <c r="B484" s="15"/>
+      <c r="C484" s="15"/>
+      <c r="D484" s="10"/>
+      <c r="E484" s="15"/>
+      <c r="F484" s="15"/>
+      <c r="G484" s="10"/>
+      <c r="H484" s="15"/>
+      <c r="I484" s="10"/>
+      <c r="J484" s="44"/>
+      <c r="K484" s="35"/>
+      <c r="L484" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="M484" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N484" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14">
+      <c r="A485" s="12"/>
+      <c r="B485" s="16"/>
+      <c r="C485" s="16"/>
+      <c r="D485" s="12"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
+      <c r="G485" s="12"/>
+      <c r="H485" s="16"/>
+      <c r="I485" s="12"/>
+      <c r="J485" s="47"/>
+      <c r="K485" s="36"/>
+      <c r="L485" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="M485" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N485" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14">
+      <c r="A486" s="17"/>
+      <c r="B486" s="18"/>
+      <c r="C486" s="18"/>
+      <c r="D486" s="18"/>
+      <c r="E486" s="18"/>
+      <c r="F486" s="18"/>
+      <c r="G486" s="18"/>
+      <c r="H486" s="18"/>
+      <c r="I486" s="18"/>
+      <c r="J486" s="18"/>
+      <c r="K486" s="18"/>
+      <c r="L486" s="18"/>
+      <c r="M486" s="18"/>
+      <c r="N486" s="49"/>
+    </row>
+    <row r="487" spans="1:14">
+      <c r="A487" s="8">
+        <v>94</v>
+      </c>
+      <c r="B487" s="14">
+        <v>44347</v>
+      </c>
+      <c r="C487" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D487" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E487" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F487" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G487" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H487" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I487" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J487" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K487" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L487" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="M487" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N487" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
+      <c r="A488" s="12"/>
+      <c r="B488" s="16"/>
+      <c r="C488" s="16"/>
+      <c r="D488" s="12"/>
+      <c r="E488" s="16"/>
+      <c r="F488" s="16"/>
+      <c r="G488" s="12"/>
+      <c r="H488" s="16"/>
+      <c r="I488" s="12"/>
+      <c r="J488" s="47"/>
+      <c r="K488" s="36"/>
+      <c r="L488" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="M488" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N488" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14">
+      <c r="A489" s="17"/>
+      <c r="B489" s="18"/>
+      <c r="C489" s="18"/>
+      <c r="D489" s="18"/>
+      <c r="E489" s="18"/>
+      <c r="F489" s="18"/>
+      <c r="G489" s="18"/>
+      <c r="H489" s="18"/>
+      <c r="I489" s="18"/>
+      <c r="J489" s="18"/>
+      <c r="K489" s="18"/>
+      <c r="L489" s="18"/>
+      <c r="M489" s="18"/>
+      <c r="N489" s="49"/>
+    </row>
+    <row r="490" ht="31.5" spans="1:14">
+      <c r="A490" s="8">
+        <v>95</v>
+      </c>
+      <c r="B490" s="14">
+        <v>44349</v>
+      </c>
+      <c r="C490" s="14">
+        <v>44349</v>
+      </c>
+      <c r="D490" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E490" s="14">
+        <v>44349</v>
+      </c>
+      <c r="F490" s="14">
+        <v>44349</v>
+      </c>
+      <c r="G490" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H490" s="14">
+        <v>44349</v>
+      </c>
+      <c r="I490" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J490" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K490" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="L490" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="M490" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N490" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="491" ht="47.25" spans="1:14">
+      <c r="A491" s="10"/>
+      <c r="B491" s="15"/>
+      <c r="C491" s="15"/>
+      <c r="D491" s="10"/>
+      <c r="E491" s="15"/>
+      <c r="F491" s="15"/>
+      <c r="G491" s="10"/>
+      <c r="H491" s="15"/>
+      <c r="I491" s="10"/>
+      <c r="J491" s="44"/>
+      <c r="K491" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L491" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="M491" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N491" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492" ht="31.5" spans="1:14">
+      <c r="A492" s="10"/>
+      <c r="B492" s="15"/>
+      <c r="C492" s="15"/>
+      <c r="D492" s="10"/>
+      <c r="E492" s="15"/>
+      <c r="F492" s="15"/>
+      <c r="G492" s="10"/>
+      <c r="H492" s="15"/>
+      <c r="I492" s="10"/>
+      <c r="J492" s="44"/>
+      <c r="K492" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L492" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="M492" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N492" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="493" ht="31.5" spans="1:14">
+      <c r="A493" s="10"/>
+      <c r="B493" s="15"/>
+      <c r="C493" s="15"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="15"/>
+      <c r="F493" s="15"/>
+      <c r="G493" s="10"/>
+      <c r="H493" s="15"/>
+      <c r="I493" s="10"/>
+      <c r="J493" s="44"/>
+      <c r="K493" s="35"/>
+      <c r="L493" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="M493" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N493" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="494" ht="31.5" spans="1:14">
+      <c r="A494" s="10"/>
+      <c r="B494" s="15"/>
+      <c r="C494" s="15"/>
+      <c r="D494" s="10"/>
+      <c r="E494" s="15"/>
+      <c r="F494" s="15"/>
+      <c r="G494" s="10"/>
+      <c r="H494" s="15"/>
+      <c r="I494" s="10"/>
+      <c r="J494" s="44"/>
+      <c r="K494" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L494" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="M494" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N494" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="495" ht="63" spans="1:14">
+      <c r="A495" s="10"/>
+      <c r="B495" s="15"/>
+      <c r="C495" s="15"/>
+      <c r="D495" s="10"/>
+      <c r="E495" s="15"/>
+      <c r="F495" s="15"/>
+      <c r="G495" s="10"/>
+      <c r="H495" s="15"/>
+      <c r="I495" s="12"/>
+      <c r="J495" s="44"/>
+      <c r="K495" s="36"/>
+      <c r="L495" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="M495" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N495" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="496" ht="31.5" spans="1:14">
+      <c r="A496" s="10"/>
+      <c r="B496" s="15"/>
+      <c r="C496" s="15"/>
+      <c r="D496" s="10"/>
+      <c r="E496" s="15"/>
+      <c r="F496" s="15"/>
+      <c r="G496" s="10"/>
+      <c r="H496" s="15"/>
+      <c r="I496" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J496" s="44"/>
+      <c r="K496" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L496" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="M496" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N496" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14">
+      <c r="A497" s="12"/>
+      <c r="B497" s="16"/>
+      <c r="C497" s="16"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="16"/>
+      <c r="G497" s="12"/>
+      <c r="H497" s="16"/>
+      <c r="I497" s="12"/>
+      <c r="J497" s="47"/>
+      <c r="K497" s="47"/>
+      <c r="L497" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="M497" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N497" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="498" ht="31.5" spans="1:14">
+      <c r="A498" s="8">
+        <v>96</v>
+      </c>
+      <c r="B498" s="14">
+        <v>44350</v>
+      </c>
+      <c r="C498" s="14">
+        <v>44350</v>
+      </c>
+      <c r="D498" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E498" s="14">
+        <v>44350</v>
+      </c>
+      <c r="F498" s="14">
+        <v>44350</v>
+      </c>
+      <c r="G498" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H498" s="14">
+        <v>44350</v>
+      </c>
+      <c r="I498" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J498" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K498" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="L498" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="M498" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N498" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="499" ht="31.5" spans="1:14">
+      <c r="A499" s="10"/>
+      <c r="B499" s="15"/>
+      <c r="C499" s="15"/>
+      <c r="D499" s="10"/>
+      <c r="E499" s="15"/>
+      <c r="F499" s="15"/>
+      <c r="G499" s="10"/>
+      <c r="H499" s="15"/>
+      <c r="I499" s="10"/>
+      <c r="J499" s="44"/>
+      <c r="K499" s="35"/>
+      <c r="L499" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="M499" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N499" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="500" ht="63" spans="1:14">
+      <c r="A500" s="10"/>
+      <c r="B500" s="15"/>
+      <c r="C500" s="15"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="15"/>
+      <c r="F500" s="15"/>
+      <c r="G500" s="10"/>
+      <c r="H500" s="15"/>
+      <c r="I500" s="10"/>
+      <c r="J500" s="44"/>
+      <c r="K500" s="35"/>
+      <c r="L500" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="M500" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N500" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="501" ht="47.25" spans="1:14">
+      <c r="A501" s="10"/>
+      <c r="B501" s="15"/>
+      <c r="C501" s="16"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="16"/>
+      <c r="F501" s="16"/>
+      <c r="G501" s="10"/>
+      <c r="H501" s="16"/>
+      <c r="I501" s="12"/>
+      <c r="J501" s="47"/>
+      <c r="K501" s="36"/>
+      <c r="L501" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="M501" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N501" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="502" ht="47.25" spans="1:14">
+      <c r="A502" s="12"/>
+      <c r="B502" s="16"/>
+      <c r="C502" s="20">
+        <v>44340</v>
+      </c>
+      <c r="D502" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="E502" s="20">
+        <v>44341</v>
+      </c>
+      <c r="F502" s="20">
+        <v>44362</v>
+      </c>
+      <c r="G502" s="12"/>
+      <c r="H502" s="20">
+        <v>44362</v>
+      </c>
+      <c r="I502" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="J502" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="K502" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="L502" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="M502" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N502" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="503" ht="47.25" spans="1:14">
+      <c r="A503" s="8">
+        <v>97</v>
+      </c>
+      <c r="B503" s="14">
+        <v>44351</v>
+      </c>
+      <c r="C503" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D503" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E503" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F503" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G503" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H503" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I503" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J503" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K503" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L503" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="M503" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N503" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="504" ht="47.25" spans="1:14">
+      <c r="A504" s="10"/>
+      <c r="B504" s="15"/>
+      <c r="C504" s="16"/>
+      <c r="D504" s="12"/>
+      <c r="E504" s="16"/>
+      <c r="F504" s="16"/>
+      <c r="G504" s="10"/>
+      <c r="H504" s="16"/>
+      <c r="I504" s="12"/>
+      <c r="J504" s="47"/>
+      <c r="K504" s="36"/>
+      <c r="L504" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="M504" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N504" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="505" ht="47.25" spans="1:14">
+      <c r="A505" s="10"/>
+      <c r="B505" s="15"/>
+      <c r="C505" s="14">
+        <v>44351</v>
+      </c>
+      <c r="D505" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E505" s="14">
+        <v>44351</v>
+      </c>
+      <c r="F505" s="14">
+        <v>44351</v>
+      </c>
+      <c r="G505" s="10"/>
+      <c r="H505" s="14">
+        <v>44351</v>
+      </c>
+      <c r="I505" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J505" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K505" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L505" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="M505" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N505" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="506" ht="31.5" spans="1:14">
+      <c r="A506" s="12"/>
+      <c r="B506" s="16"/>
+      <c r="C506" s="16"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="16"/>
+      <c r="F506" s="16"/>
+      <c r="G506" s="12"/>
+      <c r="H506" s="16"/>
+      <c r="I506" s="12"/>
+      <c r="J506" s="47"/>
+      <c r="K506" s="36"/>
+      <c r="L506" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="M506" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N506" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14">
+      <c r="A507" s="17"/>
+      <c r="B507" s="18"/>
+      <c r="C507" s="18"/>
+      <c r="D507" s="18"/>
+      <c r="E507" s="18"/>
+      <c r="F507" s="18"/>
+      <c r="G507" s="18"/>
+      <c r="H507" s="18"/>
+      <c r="I507" s="18"/>
+      <c r="J507" s="18"/>
+      <c r="K507" s="18"/>
+      <c r="L507" s="18"/>
+      <c r="M507" s="18"/>
+      <c r="N507" s="49"/>
+    </row>
+    <row r="508" ht="31.5" spans="1:14">
+      <c r="A508" s="8">
+        <v>98</v>
+      </c>
+      <c r="B508" s="14">
+        <v>44354</v>
+      </c>
+      <c r="C508" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D508" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E508" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F508" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G508" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H508" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I508" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J508" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K508" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="L508" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="M508" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N508" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="509" ht="63" spans="1:14">
+      <c r="A509" s="10"/>
+      <c r="B509" s="15"/>
+      <c r="C509" s="15"/>
+      <c r="D509" s="10"/>
+      <c r="E509" s="15"/>
+      <c r="F509" s="15"/>
+      <c r="G509" s="10"/>
+      <c r="H509" s="15"/>
+      <c r="I509" s="10"/>
+      <c r="J509" s="44"/>
+      <c r="K509" s="36"/>
+      <c r="L509" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="M509" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N509" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14">
+      <c r="A510" s="12"/>
+      <c r="B510" s="16"/>
+      <c r="C510" s="16"/>
+      <c r="D510" s="12"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="16"/>
+      <c r="G510" s="12"/>
+      <c r="H510" s="16"/>
+      <c r="I510" s="12"/>
+      <c r="J510" s="47"/>
+      <c r="K510" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="L510" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="M510" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N510" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="511" ht="31.5" spans="1:14">
+      <c r="A511" s="8">
+        <v>99</v>
+      </c>
+      <c r="B511" s="14">
+        <v>44355</v>
+      </c>
+      <c r="C511" s="14">
+        <v>44355</v>
+      </c>
+      <c r="D511" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E511" s="14">
+        <v>44355</v>
+      </c>
+      <c r="F511" s="14">
+        <v>44355</v>
+      </c>
+      <c r="G511" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H511" s="14">
+        <v>44355</v>
+      </c>
+      <c r="I511" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J511" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K511" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L511" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="M511" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N511" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="512" ht="47.25" spans="1:14">
+      <c r="A512" s="10"/>
+      <c r="B512" s="15"/>
+      <c r="C512" s="15"/>
+      <c r="D512" s="10"/>
+      <c r="E512" s="15"/>
+      <c r="F512" s="15"/>
+      <c r="G512" s="10"/>
+      <c r="H512" s="15"/>
+      <c r="I512" s="10"/>
+      <c r="J512" s="44"/>
+      <c r="K512" s="35"/>
+      <c r="L512" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="M512" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N512" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="513" ht="31.5" spans="1:14">
+      <c r="A513" s="10"/>
+      <c r="B513" s="15"/>
+      <c r="C513" s="15"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="15"/>
+      <c r="F513" s="15"/>
+      <c r="G513" s="10"/>
+      <c r="H513" s="15"/>
+      <c r="I513" s="10"/>
+      <c r="J513" s="44"/>
+      <c r="K513" s="36"/>
+      <c r="L513" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="M513" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N513" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="514" ht="47.25" spans="1:14">
+      <c r="A514" s="10"/>
+      <c r="B514" s="15"/>
+      <c r="C514" s="15"/>
+      <c r="D514" s="10"/>
+      <c r="E514" s="15"/>
+      <c r="F514" s="15"/>
+      <c r="G514" s="10"/>
+      <c r="H514" s="15"/>
+      <c r="I514" s="10"/>
+      <c r="J514" s="44"/>
+      <c r="K514" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L514" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="M514" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N514" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14">
+      <c r="A515" s="10"/>
+      <c r="B515" s="15"/>
+      <c r="C515" s="15"/>
+      <c r="D515" s="10"/>
+      <c r="E515" s="15"/>
+      <c r="F515" s="15"/>
+      <c r="G515" s="10"/>
+      <c r="H515" s="15"/>
+      <c r="I515" s="10"/>
+      <c r="J515" s="44"/>
+      <c r="K515" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="L515" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="M515" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N515" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="516" ht="31.5" spans="1:14">
+      <c r="A516" s="10"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="15"/>
+      <c r="D516" s="10"/>
+      <c r="E516" s="15"/>
+      <c r="F516" s="15"/>
+      <c r="G516" s="10"/>
+      <c r="H516" s="15"/>
+      <c r="I516" s="10"/>
+      <c r="J516" s="44"/>
+      <c r="K516" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="L516" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="M516" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N516" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="517" ht="31.5" spans="1:14">
+      <c r="A517" s="10"/>
+      <c r="B517" s="15"/>
+      <c r="C517" s="15"/>
+      <c r="D517" s="10"/>
+      <c r="E517" s="15"/>
+      <c r="F517" s="15"/>
+      <c r="G517" s="10"/>
+      <c r="H517" s="15"/>
+      <c r="I517" s="10"/>
+      <c r="J517" s="44"/>
+      <c r="K517" s="35"/>
+      <c r="L517" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="M517" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N517" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14">
+      <c r="A518" s="10"/>
+      <c r="B518" s="15"/>
+      <c r="C518" s="15"/>
+      <c r="D518" s="10"/>
+      <c r="E518" s="15"/>
+      <c r="F518" s="15"/>
+      <c r="G518" s="10"/>
+      <c r="H518" s="15"/>
+      <c r="I518" s="10"/>
+      <c r="J518" s="44"/>
+      <c r="K518" s="35"/>
+      <c r="L518" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="M518" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N518" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="519" ht="31.5" spans="1:14">
+      <c r="A519" s="12"/>
+      <c r="B519" s="16"/>
+      <c r="C519" s="16"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="16"/>
+      <c r="G519" s="12"/>
+      <c r="H519" s="16"/>
+      <c r="I519" s="12"/>
+      <c r="J519" s="47"/>
+      <c r="K519" s="36"/>
+      <c r="L519" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="M519" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N519" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="520" ht="31.5" spans="1:14">
+      <c r="A520" s="8">
+        <v>100</v>
+      </c>
+      <c r="B520" s="14">
+        <v>44356</v>
+      </c>
+      <c r="C520" s="14">
+        <v>44356</v>
+      </c>
+      <c r="D520" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E520" s="14">
+        <v>44356</v>
+      </c>
+      <c r="F520" s="14">
+        <v>44356</v>
+      </c>
+      <c r="G520" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H520" s="14">
+        <v>44356</v>
+      </c>
+      <c r="I520" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J520" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K520" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="L520" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="M520" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N520" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="521" ht="31.5" spans="1:14">
+      <c r="A521" s="10"/>
+      <c r="B521" s="15"/>
+      <c r="C521" s="15"/>
+      <c r="D521" s="10"/>
+      <c r="E521" s="15"/>
+      <c r="F521" s="15"/>
+      <c r="G521" s="10"/>
+      <c r="H521" s="15"/>
+      <c r="I521" s="10"/>
+      <c r="J521" s="44"/>
+      <c r="K521" s="36"/>
+      <c r="L521" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="M521" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N521" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="522" ht="31.5" spans="1:14">
+      <c r="A522" s="10"/>
+      <c r="B522" s="15"/>
+      <c r="C522" s="15"/>
+      <c r="D522" s="10"/>
+      <c r="E522" s="15"/>
+      <c r="F522" s="15"/>
+      <c r="G522" s="10"/>
+      <c r="H522" s="15"/>
+      <c r="I522" s="10"/>
+      <c r="J522" s="44"/>
+      <c r="K522" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="L522" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="M522" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N522" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14">
+      <c r="A523" s="10"/>
+      <c r="B523" s="15"/>
+      <c r="C523" s="15"/>
+      <c r="D523" s="10"/>
+      <c r="E523" s="15"/>
+      <c r="F523" s="15"/>
+      <c r="G523" s="10"/>
+      <c r="H523" s="15"/>
+      <c r="I523" s="10"/>
+      <c r="J523" s="44"/>
+      <c r="K523" s="36"/>
+      <c r="L523" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="M523" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N523" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="524" ht="47.25" spans="1:14">
+      <c r="A524" s="10"/>
+      <c r="B524" s="15"/>
+      <c r="C524" s="15"/>
+      <c r="D524" s="10"/>
+      <c r="E524" s="15"/>
+      <c r="F524" s="15"/>
+      <c r="G524" s="10"/>
+      <c r="H524" s="15"/>
+      <c r="I524" s="10"/>
+      <c r="J524" s="44"/>
+      <c r="K524" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L524" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="M524" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N524" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="525" ht="31.5" spans="1:14">
+      <c r="A525" s="12"/>
+      <c r="B525" s="16"/>
+      <c r="C525" s="16"/>
+      <c r="D525" s="12"/>
+      <c r="E525" s="16"/>
+      <c r="F525" s="16"/>
+      <c r="G525" s="12"/>
+      <c r="H525" s="16"/>
+      <c r="I525" s="12"/>
+      <c r="J525" s="47"/>
+      <c r="K525" s="36"/>
+      <c r="L525" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="M525" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N525" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="526" ht="47.25" spans="1:14">
+      <c r="A526" s="8">
+        <v>101</v>
+      </c>
+      <c r="B526" s="14">
+        <v>44357</v>
+      </c>
+      <c r="C526" s="14">
+        <v>44357</v>
+      </c>
+      <c r="D526" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E526" s="14">
+        <v>44357</v>
+      </c>
+      <c r="F526" s="14">
+        <v>44357</v>
+      </c>
+      <c r="G526" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H526" s="14">
+        <v>44357</v>
+      </c>
+      <c r="I526" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J526" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K526" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L526" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="M526" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N526" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="527" ht="47.25" spans="1:14">
+      <c r="A527" s="10"/>
+      <c r="B527" s="15"/>
+      <c r="C527" s="15"/>
+      <c r="D527" s="10"/>
+      <c r="E527" s="15"/>
+      <c r="F527" s="15"/>
+      <c r="G527" s="10"/>
+      <c r="H527" s="15"/>
+      <c r="I527" s="10"/>
+      <c r="J527" s="44"/>
+      <c r="K527" s="36"/>
+      <c r="L527" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="M527" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N527" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14">
+      <c r="A528" s="12"/>
+      <c r="B528" s="16"/>
+      <c r="C528" s="16"/>
+      <c r="D528" s="12"/>
+      <c r="E528" s="16"/>
+      <c r="F528" s="16"/>
+      <c r="G528" s="12"/>
+      <c r="H528" s="16"/>
+      <c r="I528" s="12"/>
+      <c r="J528" s="47"/>
+      <c r="K528" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="L528" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="M528" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N528" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14">
+      <c r="A529" s="8">
+        <v>102</v>
+      </c>
+      <c r="B529" s="14">
+        <v>44358</v>
+      </c>
+      <c r="C529" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D529" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E529" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F529" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G529" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H529" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I529" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J529" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K529" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L529" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="M529" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N529" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="530" ht="31.5" spans="1:14">
+      <c r="A530" s="10"/>
+      <c r="B530" s="15"/>
+      <c r="C530" s="15"/>
+      <c r="D530" s="10"/>
+      <c r="E530" s="15"/>
+      <c r="F530" s="15"/>
+      <c r="G530" s="10"/>
+      <c r="H530" s="15"/>
+      <c r="I530" s="10"/>
+      <c r="J530" s="44"/>
+      <c r="K530" s="35"/>
+      <c r="L530" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="M530" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N530" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14">
+      <c r="A531" s="12"/>
+      <c r="B531" s="16"/>
+      <c r="C531" s="16"/>
+      <c r="D531" s="12"/>
+      <c r="E531" s="16"/>
+      <c r="F531" s="16"/>
+      <c r="G531" s="12"/>
+      <c r="H531" s="16"/>
+      <c r="I531" s="12"/>
+      <c r="J531" s="47"/>
+      <c r="K531" s="36"/>
+      <c r="L531" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="M531" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N531" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14">
+      <c r="A532" s="17"/>
+      <c r="B532" s="18"/>
+      <c r="C532" s="18"/>
+      <c r="D532" s="18"/>
+      <c r="E532" s="18"/>
+      <c r="F532" s="18"/>
+      <c r="G532" s="18"/>
+      <c r="H532" s="18"/>
+      <c r="I532" s="18"/>
+      <c r="J532" s="18"/>
+      <c r="K532" s="18"/>
+      <c r="L532" s="18"/>
+      <c r="M532" s="18"/>
+      <c r="N532" s="49"/>
+    </row>
+    <row r="533" spans="1:14">
+      <c r="A533" s="8">
+        <v>103</v>
+      </c>
+      <c r="B533" s="14">
+        <v>44361</v>
+      </c>
+      <c r="C533" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D533" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E533" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F533" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G533" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H533" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I533" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J533" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K533" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L533" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="M533" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N533" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="534" ht="31.5" spans="1:14">
+      <c r="A534" s="10"/>
+      <c r="B534" s="15"/>
+      <c r="C534" s="15"/>
+      <c r="D534" s="10"/>
+      <c r="E534" s="15"/>
+      <c r="F534" s="15"/>
+      <c r="G534" s="10"/>
+      <c r="H534" s="15"/>
+      <c r="I534" s="10"/>
+      <c r="J534" s="44"/>
+      <c r="K534" s="35"/>
+      <c r="L534" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="M534" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N534" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14">
+      <c r="A535" s="12"/>
+      <c r="B535" s="16"/>
+      <c r="C535" s="16"/>
+      <c r="D535" s="12"/>
+      <c r="E535" s="16"/>
+      <c r="F535" s="16"/>
+      <c r="G535" s="12"/>
+      <c r="H535" s="16"/>
+      <c r="I535" s="12"/>
+      <c r="J535" s="47"/>
+      <c r="K535" s="36"/>
+      <c r="L535" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="M535" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N535" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14">
+      <c r="A536" s="8">
+        <v>104</v>
+      </c>
+      <c r="B536" s="14">
+        <v>44362</v>
+      </c>
+      <c r="C536" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D536" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E536" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F536" s="14">
+        <v>44362</v>
+      </c>
+      <c r="G536" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H536" s="14">
+        <v>44362</v>
+      </c>
+      <c r="I536" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J536" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K536" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L536" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="M536" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N536" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14">
+      <c r="A537" s="10"/>
+      <c r="B537" s="15"/>
+      <c r="C537" s="15"/>
+      <c r="D537" s="10"/>
+      <c r="E537" s="15"/>
+      <c r="F537" s="15"/>
+      <c r="G537" s="10"/>
+      <c r="H537" s="15"/>
+      <c r="I537" s="10"/>
+      <c r="J537" s="44"/>
+      <c r="K537" s="35"/>
+      <c r="L537" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="M537" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N537" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14">
+      <c r="A538" s="10"/>
+      <c r="B538" s="15"/>
+      <c r="C538" s="15"/>
+      <c r="D538" s="10"/>
+      <c r="E538" s="15"/>
+      <c r="F538" s="15"/>
+      <c r="G538" s="10"/>
+      <c r="H538" s="15"/>
+      <c r="I538" s="10"/>
+      <c r="J538" s="44"/>
+      <c r="K538" s="35"/>
+      <c r="L538" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="M538" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N538" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14">
+      <c r="A539" s="12"/>
+      <c r="B539" s="16"/>
+      <c r="C539" s="16"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="16"/>
+      <c r="F539" s="16"/>
+      <c r="G539" s="12"/>
+      <c r="H539" s="16"/>
+      <c r="I539" s="12"/>
+      <c r="J539" s="47"/>
+      <c r="K539" s="36"/>
+      <c r="L539" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="M539" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N539" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14">
+      <c r="A540" s="8">
+        <v>105</v>
+      </c>
+      <c r="B540" s="14">
+        <v>44363</v>
+      </c>
+      <c r="C540" s="14">
+        <v>44340</v>
+      </c>
+      <c r="D540" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E540" s="14">
+        <v>44341</v>
+      </c>
+      <c r="F540" s="14">
+        <v>44363</v>
+      </c>
+      <c r="G540" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H540" s="14">
+        <v>44363</v>
+      </c>
+      <c r="I540" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J540" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K540" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L540" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="M540" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N540" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14">
+      <c r="A541" s="10"/>
+      <c r="B541" s="15"/>
+      <c r="C541" s="15"/>
+      <c r="D541" s="10"/>
+      <c r="E541" s="15"/>
+      <c r="F541" s="15"/>
+      <c r="G541" s="10"/>
+      <c r="H541" s="15"/>
+      <c r="I541" s="10"/>
+      <c r="J541" s="44"/>
+      <c r="K541" s="35"/>
+      <c r="L541" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="M541" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N541" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="542" ht="31.5" spans="1:14">
+      <c r="A542" s="12"/>
+      <c r="B542" s="16"/>
+      <c r="C542" s="20">
+        <v>44363</v>
+      </c>
+      <c r="D542" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E542" s="20">
+        <v>44363</v>
+      </c>
+      <c r="F542" s="16"/>
+      <c r="G542" s="12"/>
+      <c r="H542" s="16"/>
+      <c r="I542" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J542" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K542" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="L542" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="M542" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N542" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="543" ht="31.5" spans="1:14">
+      <c r="A543" s="8">
+        <v>106</v>
+      </c>
+      <c r="B543" s="14">
+        <v>44364</v>
+      </c>
+      <c r="C543" s="14">
+        <v>44364</v>
+      </c>
+      <c r="D543" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E543" s="14">
+        <v>44364</v>
+      </c>
+      <c r="F543" s="14">
+        <v>44364</v>
+      </c>
+      <c r="G543" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H543" s="14">
+        <v>44364</v>
+      </c>
+      <c r="I543" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J543" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K543" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="L543" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="M543" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N543" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14">
+      <c r="A544" s="10"/>
+      <c r="B544" s="15"/>
+      <c r="C544" s="15"/>
+      <c r="D544" s="10"/>
+      <c r="E544" s="15"/>
+      <c r="F544" s="15"/>
+      <c r="G544" s="10"/>
+      <c r="H544" s="15"/>
+      <c r="I544" s="10"/>
+      <c r="J544" s="44"/>
+      <c r="K544" s="36"/>
+      <c r="L544" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="M544" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N544" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14">
+      <c r="A545" s="10"/>
+      <c r="B545" s="15"/>
+      <c r="C545" s="15"/>
+      <c r="D545" s="10"/>
+      <c r="E545" s="15"/>
+      <c r="F545" s="15"/>
+      <c r="G545" s="10"/>
+      <c r="H545" s="15"/>
+      <c r="I545" s="10"/>
+      <c r="J545" s="44"/>
+      <c r="K545" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L545" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="M545" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N545" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14">
+      <c r="A546" s="12"/>
+      <c r="B546" s="16"/>
+      <c r="C546" s="16"/>
+      <c r="D546" s="12"/>
+      <c r="E546" s="16"/>
+      <c r="F546" s="16"/>
+      <c r="G546" s="12"/>
+      <c r="H546" s="16"/>
+      <c r="I546" s="12"/>
+      <c r="J546" s="47"/>
+      <c r="K546" s="36"/>
+      <c r="L546" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="M546" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N546" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="547" ht="47.25" spans="1:14">
+      <c r="A547" s="8">
+        <v>107</v>
+      </c>
+      <c r="B547" s="14">
+        <v>44365</v>
+      </c>
+      <c r="C547" s="14">
+        <v>44365</v>
+      </c>
+      <c r="D547" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E547" s="14">
+        <v>44365</v>
+      </c>
+      <c r="F547" s="14">
+        <v>44365</v>
+      </c>
+      <c r="G547" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H547" s="14">
+        <v>44365</v>
+      </c>
+      <c r="I547" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J547" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K547" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L547" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="M547" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N547" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="548" ht="31.5" spans="1:14">
+      <c r="A548" s="10"/>
+      <c r="B548" s="15"/>
+      <c r="C548" s="15"/>
+      <c r="D548" s="10"/>
+      <c r="E548" s="15"/>
+      <c r="F548" s="15"/>
+      <c r="G548" s="10"/>
+      <c r="H548" s="15"/>
+      <c r="I548" s="10"/>
+      <c r="J548" s="44"/>
+      <c r="K548" s="36"/>
+      <c r="L548" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="M548" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N548" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="549" ht="31.5" spans="1:14">
+      <c r="A549" s="10"/>
+      <c r="B549" s="15"/>
+      <c r="C549" s="15"/>
+      <c r="D549" s="10"/>
+      <c r="E549" s="15"/>
+      <c r="F549" s="15"/>
+      <c r="G549" s="10"/>
+      <c r="H549" s="15"/>
+      <c r="I549" s="10"/>
+      <c r="J549" s="44"/>
+      <c r="K549" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="L549" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="M549" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N549" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14">
+      <c r="A550" s="12"/>
+      <c r="B550" s="16"/>
+      <c r="C550" s="16"/>
+      <c r="D550" s="12"/>
+      <c r="E550" s="16"/>
+      <c r="F550" s="16"/>
+      <c r="G550" s="12"/>
+      <c r="H550" s="16"/>
+      <c r="I550" s="12"/>
+      <c r="J550" s="47"/>
+      <c r="K550" s="36"/>
+      <c r="L550" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="M550" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N550" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14">
+      <c r="A551" s="17"/>
+      <c r="B551" s="18"/>
+      <c r="C551" s="18"/>
+      <c r="D551" s="18"/>
+      <c r="E551" s="18"/>
+      <c r="F551" s="18"/>
+      <c r="G551" s="18"/>
+      <c r="H551" s="18"/>
+      <c r="I551" s="18"/>
+      <c r="J551" s="18"/>
+      <c r="K551" s="18"/>
+      <c r="L551" s="18"/>
+      <c r="M551" s="18"/>
+      <c r="N551" s="49"/>
+    </row>
+    <row r="552" spans="1:14">
+      <c r="A552" s="8">
+        <v>108</v>
+      </c>
+      <c r="B552" s="14">
+        <v>44368</v>
+      </c>
+      <c r="C552" s="14">
+        <v>44368</v>
+      </c>
+      <c r="D552" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E552" s="14">
+        <v>44368</v>
+      </c>
+      <c r="F552" s="14">
+        <v>44368</v>
+      </c>
+      <c r="G552" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H552" s="14">
+        <v>44368</v>
+      </c>
+      <c r="I552" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J552" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K552" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="L552" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="M552" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N552" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14">
+      <c r="A553" s="10"/>
+      <c r="B553" s="15"/>
+      <c r="C553" s="15"/>
+      <c r="D553" s="10"/>
+      <c r="E553" s="15"/>
+      <c r="F553" s="15"/>
+      <c r="G553" s="10"/>
+      <c r="H553" s="15"/>
+      <c r="I553" s="10"/>
+      <c r="J553" s="44"/>
+      <c r="K553" s="35"/>
+      <c r="L553" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="M553" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N553" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="554" ht="31.5" spans="1:14">
+      <c r="A554" s="10"/>
+      <c r="B554" s="15"/>
+      <c r="C554" s="15"/>
+      <c r="D554" s="10"/>
+      <c r="E554" s="15"/>
+      <c r="F554" s="15"/>
+      <c r="G554" s="10"/>
+      <c r="H554" s="15"/>
+      <c r="I554" s="10"/>
+      <c r="J554" s="44"/>
+      <c r="K554" s="36"/>
+      <c r="L554" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="M554" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N554" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="555" ht="47.25" spans="1:14">
+      <c r="A555" s="10"/>
+      <c r="B555" s="15"/>
+      <c r="C555" s="15"/>
+      <c r="D555" s="10"/>
+      <c r="E555" s="15"/>
+      <c r="F555" s="15"/>
+      <c r="G555" s="10"/>
+      <c r="H555" s="15"/>
+      <c r="I555" s="10"/>
+      <c r="J555" s="44"/>
+      <c r="K555" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="L555" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="M555" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N555" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="556" ht="31.5" spans="1:14">
+      <c r="A556" s="10"/>
+      <c r="B556" s="15"/>
+      <c r="C556" s="15"/>
+      <c r="D556" s="10"/>
+      <c r="E556" s="15"/>
+      <c r="F556" s="15"/>
+      <c r="G556" s="10"/>
+      <c r="H556" s="15"/>
+      <c r="I556" s="10"/>
+      <c r="J556" s="44"/>
+      <c r="K556" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L556" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="M556" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N556" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="557" ht="31.5" spans="1:14">
+      <c r="A557" s="10"/>
+      <c r="B557" s="15"/>
+      <c r="C557" s="15"/>
+      <c r="D557" s="10"/>
+      <c r="E557" s="15"/>
+      <c r="F557" s="15"/>
+      <c r="G557" s="10"/>
+      <c r="H557" s="15"/>
+      <c r="I557" s="10"/>
+      <c r="J557" s="44"/>
+      <c r="K557" s="35"/>
+      <c r="L557" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="M557" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N557" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="558" ht="47.25" spans="1:14">
+      <c r="A558" s="12"/>
+      <c r="B558" s="16"/>
+      <c r="C558" s="16"/>
+      <c r="D558" s="12"/>
+      <c r="E558" s="16"/>
+      <c r="F558" s="16"/>
+      <c r="G558" s="12"/>
+      <c r="H558" s="16"/>
+      <c r="I558" s="12"/>
+      <c r="J558" s="47"/>
+      <c r="K558" s="36"/>
+      <c r="L558" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="M558" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N558" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="559" ht="31.5" spans="1:14">
+      <c r="A559" s="8">
+        <v>109</v>
+      </c>
+      <c r="B559" s="14">
+        <v>44369</v>
+      </c>
+      <c r="C559" s="14">
+        <v>44369</v>
+      </c>
+      <c r="D559" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E559" s="14">
+        <v>44369</v>
+      </c>
+      <c r="F559" s="14">
+        <v>44369</v>
+      </c>
+      <c r="G559" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H559" s="14">
+        <v>44369</v>
+      </c>
+      <c r="I559" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J559" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K559" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="L559" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="M559" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N559" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="560" ht="31.5" spans="1:14">
+      <c r="A560" s="10"/>
+      <c r="B560" s="15"/>
+      <c r="C560" s="15"/>
+      <c r="D560" s="10"/>
+      <c r="E560" s="15"/>
+      <c r="F560" s="15"/>
+      <c r="G560" s="10"/>
+      <c r="H560" s="15"/>
+      <c r="I560" s="10"/>
+      <c r="J560" s="44"/>
+      <c r="K560" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="L560" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="M560" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N560" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="561" ht="31.5" spans="1:14">
+      <c r="A561" s="10"/>
+      <c r="B561" s="15"/>
+      <c r="C561" s="15"/>
+      <c r="D561" s="10"/>
+      <c r="E561" s="15"/>
+      <c r="F561" s="15"/>
+      <c r="G561" s="10"/>
+      <c r="H561" s="15"/>
+      <c r="I561" s="10"/>
+      <c r="J561" s="44"/>
+      <c r="K561" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L561" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="M561" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N561" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="562" ht="31.5" spans="1:14">
+      <c r="A562" s="10"/>
+      <c r="B562" s="15"/>
+      <c r="C562" s="15"/>
+      <c r="D562" s="10"/>
+      <c r="E562" s="15"/>
+      <c r="F562" s="15"/>
+      <c r="G562" s="10"/>
+      <c r="H562" s="15"/>
+      <c r="I562" s="10"/>
+      <c r="J562" s="44"/>
+      <c r="K562" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L562" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="M562" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N562" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="563" ht="31.5" spans="1:14">
+      <c r="A563" s="12"/>
+      <c r="B563" s="16"/>
+      <c r="C563" s="16"/>
+      <c r="D563" s="12"/>
+      <c r="E563" s="16"/>
+      <c r="F563" s="16"/>
+      <c r="G563" s="12"/>
+      <c r="H563" s="16"/>
+      <c r="I563" s="12"/>
+      <c r="J563" s="47"/>
+      <c r="K563" s="36"/>
+      <c r="L563" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="M563" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N563" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="564" ht="47.25" spans="1:14">
+      <c r="A564" s="8">
+        <v>110</v>
+      </c>
+      <c r="B564" s="14">
+        <v>44370</v>
+      </c>
+      <c r="C564" s="14">
+        <v>44370</v>
+      </c>
+      <c r="D564" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E564" s="14">
+        <v>44370</v>
+      </c>
+      <c r="F564" s="14">
+        <v>44370</v>
+      </c>
+      <c r="G564" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H564" s="14">
+        <v>44370</v>
+      </c>
+      <c r="I564" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J564" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="K564" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="L564" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="M564" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N564" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="565" ht="47.25" spans="1:14">
+      <c r="A565" s="10"/>
+      <c r="B565" s="15"/>
+      <c r="C565" s="15"/>
+      <c r="D565" s="10"/>
+      <c r="E565" s="15"/>
+      <c r="F565" s="15"/>
+      <c r="G565" s="10"/>
+      <c r="H565" s="15"/>
+      <c r="I565" s="10"/>
+      <c r="J565" s="44"/>
+      <c r="K565" s="35"/>
+      <c r="L565" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="M565" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N565" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="566" ht="31.5" spans="1:14">
+      <c r="A566" s="10"/>
+      <c r="B566" s="15"/>
+      <c r="C566" s="15"/>
+      <c r="D566" s="10"/>
+      <c r="E566" s="15"/>
+      <c r="F566" s="15"/>
+      <c r="G566" s="10"/>
+      <c r="H566" s="15"/>
+      <c r="I566" s="10"/>
+      <c r="J566" s="44"/>
+      <c r="K566" s="35"/>
+      <c r="L566" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="M566" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N566" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="567" ht="31.5" spans="1:14">
+      <c r="A567" s="10"/>
+      <c r="B567" s="15"/>
+      <c r="C567" s="15"/>
+      <c r="D567" s="10"/>
+      <c r="E567" s="15"/>
+      <c r="F567" s="15"/>
+      <c r="G567" s="10"/>
+      <c r="H567" s="15"/>
+      <c r="I567" s="10"/>
+      <c r="J567" s="44"/>
+      <c r="K567" s="35"/>
+      <c r="L567" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="M567" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N567" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14">
+      <c r="A568" s="12"/>
+      <c r="B568" s="16"/>
+      <c r="C568" s="16"/>
+      <c r="D568" s="12"/>
+      <c r="E568" s="16"/>
+      <c r="F568" s="16"/>
+      <c r="G568" s="12"/>
+      <c r="H568" s="16"/>
+      <c r="I568" s="12"/>
+      <c r="J568" s="47"/>
+      <c r="K568" s="36"/>
+      <c r="L568" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="M568" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N568" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14">
+      <c r="A569" s="8">
+        <v>111</v>
+      </c>
+      <c r="B569" s="14">
+        <v>44371</v>
+      </c>
+      <c r="C569" s="14">
+        <v>44371</v>
+      </c>
+      <c r="D569" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E569" s="14">
+        <v>44371</v>
+      </c>
+      <c r="F569" s="14">
+        <v>44371</v>
+      </c>
+      <c r="G569" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H569" s="14">
+        <v>44371</v>
+      </c>
+      <c r="I569" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="J569" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="K569" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="L569" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="M569" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N569" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14">
+      <c r="A570" s="12"/>
+      <c r="B570" s="16"/>
+      <c r="C570" s="16"/>
+      <c r="D570" s="12"/>
+      <c r="E570" s="16"/>
+      <c r="F570" s="16"/>
+      <c r="G570" s="12"/>
+      <c r="H570" s="16"/>
+      <c r="I570" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="J570" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K570" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L570" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="M570" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N570" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="571" ht="31.5" spans="1:14">
+      <c r="A571" s="8">
+        <v>112</v>
+      </c>
+      <c r="B571" s="14">
+        <v>44372</v>
+      </c>
+      <c r="C571" s="14">
+        <v>44372</v>
+      </c>
+      <c r="D571" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E571" s="14">
+        <v>44372</v>
+      </c>
+      <c r="F571" s="14">
+        <v>44372</v>
+      </c>
+      <c r="G571" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H571" s="14">
+        <v>44372</v>
+      </c>
+      <c r="I571" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J571" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K571" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L571" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="M571" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N571" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="572" ht="63" spans="1:14">
+      <c r="A572" s="10"/>
+      <c r="B572" s="15"/>
+      <c r="C572" s="15"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="15"/>
+      <c r="F572" s="15"/>
+      <c r="G572" s="10"/>
+      <c r="H572" s="15"/>
+      <c r="I572" s="10"/>
+      <c r="J572" s="44"/>
+      <c r="K572" s="35"/>
+      <c r="L572" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="M572" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N572" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="573" ht="31.5" spans="1:14">
+      <c r="A573" s="10"/>
+      <c r="B573" s="15"/>
+      <c r="C573" s="15"/>
+      <c r="D573" s="10"/>
+      <c r="E573" s="15"/>
+      <c r="F573" s="15"/>
+      <c r="G573" s="10"/>
+      <c r="H573" s="15"/>
+      <c r="I573" s="10"/>
+      <c r="J573" s="44"/>
+      <c r="K573" s="35"/>
+      <c r="L573" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="M573" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N573" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="574" ht="31.5" spans="1:14">
+      <c r="A574" s="10"/>
+      <c r="B574" s="15"/>
+      <c r="C574" s="15"/>
+      <c r="D574" s="10"/>
+      <c r="E574" s="15"/>
+      <c r="F574" s="15"/>
+      <c r="G574" s="10"/>
+      <c r="H574" s="15"/>
+      <c r="I574" s="10"/>
+      <c r="J574" s="44"/>
+      <c r="K574" s="35"/>
+      <c r="L574" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="M574" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N574" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="575" ht="47.25" spans="1:14">
+      <c r="A575" s="10"/>
+      <c r="B575" s="15"/>
+      <c r="C575" s="15"/>
+      <c r="D575" s="10"/>
+      <c r="E575" s="15"/>
+      <c r="F575" s="15"/>
+      <c r="G575" s="10"/>
+      <c r="H575" s="15"/>
+      <c r="I575" s="10"/>
+      <c r="J575" s="44"/>
+      <c r="K575" s="35"/>
+      <c r="L575" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="M575" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N575" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14">
+      <c r="A576" s="10"/>
+      <c r="B576" s="15"/>
+      <c r="C576" s="15"/>
+      <c r="D576" s="10"/>
+      <c r="E576" s="15"/>
+      <c r="F576" s="15"/>
+      <c r="G576" s="10"/>
+      <c r="H576" s="15"/>
+      <c r="I576" s="10"/>
+      <c r="J576" s="44"/>
+      <c r="K576" s="36"/>
+      <c r="L576" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="M576" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N576" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="577" ht="31.5" spans="1:14">
+      <c r="A577" s="12"/>
+      <c r="B577" s="16"/>
+      <c r="C577" s="16"/>
+      <c r="D577" s="12"/>
+      <c r="E577" s="16"/>
+      <c r="F577" s="16"/>
+      <c r="G577" s="12"/>
+      <c r="H577" s="16"/>
+      <c r="I577" s="12"/>
+      <c r="J577" s="47"/>
+      <c r="K577" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L577" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="M577" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N577" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14">
+      <c r="A578" s="17"/>
+      <c r="B578" s="18"/>
+      <c r="C578" s="18"/>
+      <c r="D578" s="18"/>
+      <c r="E578" s="18"/>
+      <c r="F578" s="18"/>
+      <c r="G578" s="18"/>
+      <c r="H578" s="18"/>
+      <c r="I578" s="18"/>
+      <c r="J578" s="18"/>
+      <c r="K578" s="18"/>
+      <c r="L578" s="18"/>
+      <c r="M578" s="18"/>
+      <c r="N578" s="49"/>
+    </row>
+    <row r="579" ht="31.5" spans="1:14">
+      <c r="A579" s="8">
+        <v>113</v>
+      </c>
+      <c r="B579" s="14">
+        <v>44375</v>
+      </c>
+      <c r="C579" s="14">
+        <v>44375</v>
+      </c>
+      <c r="D579" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E579" s="14">
+        <v>44375</v>
+      </c>
+      <c r="F579" s="14">
+        <v>44375</v>
+      </c>
+      <c r="G579" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H579" s="14">
+        <v>44375</v>
+      </c>
+      <c r="I579" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J579" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K579" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L579" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="M579" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N579" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="580" ht="31.5" spans="1:14">
+      <c r="A580" s="10"/>
+      <c r="B580" s="15"/>
+      <c r="C580" s="15"/>
+      <c r="D580" s="10"/>
+      <c r="E580" s="15"/>
+      <c r="F580" s="15"/>
+      <c r="G580" s="10"/>
+      <c r="H580" s="15"/>
+      <c r="I580" s="10"/>
+      <c r="J580" s="44"/>
+      <c r="K580" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L580" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="M580" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="N580" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="581" ht="31.5" spans="1:14">
+      <c r="A581" s="10"/>
+      <c r="B581" s="15"/>
+      <c r="C581" s="15"/>
+      <c r="D581" s="10"/>
+      <c r="E581" s="15"/>
+      <c r="F581" s="15"/>
+      <c r="G581" s="10"/>
+      <c r="H581" s="15"/>
+      <c r="I581" s="10"/>
+      <c r="J581" s="44"/>
+      <c r="K581" s="36"/>
+      <c r="L581" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="M581" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N581" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="582" ht="47.25" spans="1:14">
+      <c r="A582" s="10"/>
+      <c r="B582" s="15"/>
+      <c r="C582" s="15"/>
+      <c r="D582" s="10"/>
+      <c r="E582" s="15"/>
+      <c r="F582" s="15"/>
+      <c r="G582" s="10"/>
+      <c r="H582" s="15"/>
+      <c r="I582" s="10"/>
+      <c r="J582" s="44"/>
+      <c r="K582" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="L582" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="M582" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N582" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="583" ht="31.5" spans="1:14">
+      <c r="A583" s="10"/>
+      <c r="B583" s="15"/>
+      <c r="C583" s="15"/>
+      <c r="D583" s="10"/>
+      <c r="E583" s="15"/>
+      <c r="F583" s="15"/>
+      <c r="G583" s="10"/>
+      <c r="H583" s="15"/>
+      <c r="I583" s="10"/>
+      <c r="J583" s="44"/>
+      <c r="K583" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="L583" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="M583" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N583" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="584" ht="31.5" spans="1:14">
+      <c r="A584" s="10"/>
+      <c r="B584" s="15"/>
+      <c r="C584" s="15"/>
+      <c r="D584" s="10"/>
+      <c r="E584" s="15"/>
+      <c r="F584" s="15"/>
+      <c r="G584" s="10"/>
+      <c r="H584" s="15"/>
+      <c r="I584" s="10"/>
+      <c r="J584" s="44"/>
+      <c r="K584" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="L584" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="M584" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N584" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="585" ht="47.25" spans="1:14">
+      <c r="A585" s="10"/>
+      <c r="B585" s="15"/>
+      <c r="C585" s="15"/>
+      <c r="D585" s="10"/>
+      <c r="E585" s="15"/>
+      <c r="F585" s="15"/>
+      <c r="G585" s="10"/>
+      <c r="H585" s="15"/>
+      <c r="I585" s="10"/>
+      <c r="J585" s="44"/>
+      <c r="K585" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L585" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="M585" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N585" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="586" ht="47.25" spans="1:14">
+      <c r="A586" s="10"/>
+      <c r="B586" s="15"/>
+      <c r="C586" s="15"/>
+      <c r="D586" s="10"/>
+      <c r="E586" s="15"/>
+      <c r="F586" s="15"/>
+      <c r="G586" s="10"/>
+      <c r="H586" s="15"/>
+      <c r="I586" s="10"/>
+      <c r="J586" s="44"/>
+      <c r="K586" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L586" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="M586" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N586" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="587" ht="31.5" spans="1:14">
+      <c r="A587" s="10"/>
+      <c r="B587" s="15"/>
+      <c r="C587" s="15"/>
+      <c r="D587" s="10"/>
+      <c r="E587" s="15"/>
+      <c r="F587" s="15"/>
+      <c r="G587" s="10"/>
+      <c r="H587" s="15"/>
+      <c r="I587" s="10"/>
+      <c r="J587" s="44"/>
+      <c r="K587" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L587" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="M587" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N587" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="588" ht="63" spans="1:14">
+      <c r="A588" s="12"/>
+      <c r="B588" s="16"/>
+      <c r="C588" s="16"/>
+      <c r="D588" s="12"/>
+      <c r="E588" s="16"/>
+      <c r="F588" s="16"/>
+      <c r="G588" s="12"/>
+      <c r="H588" s="16"/>
+      <c r="I588" s="12"/>
+      <c r="J588" s="47"/>
+      <c r="K588" s="36"/>
+      <c r="L588" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="M588" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N588" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="589" ht="31.5" spans="1:14">
+      <c r="A589" s="8">
+        <v>114</v>
+      </c>
+      <c r="B589" s="14">
+        <v>44376</v>
+      </c>
+      <c r="C589" s="14">
+        <v>44376</v>
+      </c>
+      <c r="D589" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E589" s="14">
+        <v>44376</v>
+      </c>
+      <c r="F589" s="14">
+        <v>44376</v>
+      </c>
+      <c r="G589" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H589" s="14">
+        <v>44376</v>
+      </c>
+      <c r="I589" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J589" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K589" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L589" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="M589" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N589" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="590" ht="63" spans="1:14">
+      <c r="A590" s="10"/>
+      <c r="B590" s="15"/>
+      <c r="C590" s="15"/>
+      <c r="D590" s="10"/>
+      <c r="E590" s="15"/>
+      <c r="F590" s="15"/>
+      <c r="G590" s="10"/>
+      <c r="H590" s="15"/>
+      <c r="I590" s="10"/>
+      <c r="J590" s="44"/>
+      <c r="K590" s="36"/>
+      <c r="L590" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="M590" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N590" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="591" ht="31.5" spans="1:14">
+      <c r="A591" s="10"/>
+      <c r="B591" s="15"/>
+      <c r="C591" s="15"/>
+      <c r="D591" s="10"/>
+      <c r="E591" s="15"/>
+      <c r="F591" s="15"/>
+      <c r="G591" s="10"/>
+      <c r="H591" s="15"/>
+      <c r="I591" s="10"/>
+      <c r="J591" s="44"/>
+      <c r="K591" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L591" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="M591" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N591" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="592" ht="31.5" spans="1:14">
+      <c r="A592" s="10"/>
+      <c r="B592" s="15"/>
+      <c r="C592" s="15"/>
+      <c r="D592" s="10"/>
+      <c r="E592" s="15"/>
+      <c r="F592" s="15"/>
+      <c r="G592" s="10"/>
+      <c r="H592" s="15"/>
+      <c r="I592" s="10"/>
+      <c r="J592" s="44"/>
+      <c r="K592" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L592" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="M592" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N592" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="593" ht="47.25" spans="1:14">
+      <c r="A593" s="10"/>
+      <c r="B593" s="15"/>
+      <c r="C593" s="15"/>
+      <c r="D593" s="10"/>
+      <c r="E593" s="15"/>
+      <c r="F593" s="15"/>
+      <c r="G593" s="10"/>
+      <c r="H593" s="15"/>
+      <c r="I593" s="10"/>
+      <c r="J593" s="44"/>
+      <c r="K593" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L593" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="M593" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N593" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="594" ht="31.5" spans="1:14">
+      <c r="A594" s="10"/>
+      <c r="B594" s="15"/>
+      <c r="C594" s="15"/>
+      <c r="D594" s="10"/>
+      <c r="E594" s="15"/>
+      <c r="F594" s="15"/>
+      <c r="G594" s="10"/>
+      <c r="H594" s="15"/>
+      <c r="I594" s="10"/>
+      <c r="J594" s="44"/>
+      <c r="K594" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L594" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="M594" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N594" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="595" ht="47.25" spans="1:14">
+      <c r="A595" s="10"/>
+      <c r="B595" s="15"/>
+      <c r="C595" s="15"/>
+      <c r="D595" s="10"/>
+      <c r="E595" s="15"/>
+      <c r="F595" s="15"/>
+      <c r="G595" s="10"/>
+      <c r="H595" s="15"/>
+      <c r="I595" s="10"/>
+      <c r="J595" s="44"/>
+      <c r="K595" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L595" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="M595" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N595" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="596" ht="47.25" spans="1:14">
+      <c r="A596" s="12"/>
+      <c r="B596" s="16"/>
+      <c r="C596" s="16"/>
+      <c r="D596" s="12"/>
+      <c r="E596" s="16"/>
+      <c r="F596" s="16"/>
+      <c r="G596" s="12"/>
+      <c r="H596" s="16"/>
+      <c r="I596" s="12"/>
+      <c r="J596" s="47"/>
+      <c r="K596" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="L596" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="M596" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N596" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="597" ht="47.25" spans="1:14">
+      <c r="A597" s="8">
+        <v>115</v>
+      </c>
+      <c r="B597" s="14">
+        <v>44377</v>
+      </c>
+      <c r="C597" s="14">
+        <v>44377</v>
+      </c>
+      <c r="D597" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E597" s="14">
+        <v>44377</v>
+      </c>
+      <c r="F597" s="14">
+        <v>44377</v>
+      </c>
+      <c r="G597" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H597" s="14">
+        <v>44377</v>
+      </c>
+      <c r="I597" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J597" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K597" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="L597" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="M597" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N597" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="598" ht="31.5" spans="1:14">
+      <c r="A598" s="10"/>
+      <c r="B598" s="15"/>
+      <c r="C598" s="15"/>
+      <c r="D598" s="10"/>
+      <c r="E598" s="15"/>
+      <c r="F598" s="15"/>
+      <c r="G598" s="10"/>
+      <c r="H598" s="15"/>
+      <c r="I598" s="10"/>
+      <c r="J598" s="44"/>
+      <c r="K598" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L598" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="M598" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N598" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="599" ht="47.25" spans="1:14">
+      <c r="A599" s="10"/>
+      <c r="B599" s="15"/>
+      <c r="C599" s="15"/>
+      <c r="D599" s="10"/>
+      <c r="E599" s="15"/>
+      <c r="F599" s="15"/>
+      <c r="G599" s="10"/>
+      <c r="H599" s="15"/>
+      <c r="I599" s="10"/>
+      <c r="J599" s="44"/>
+      <c r="K599" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L599" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="M599" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N599" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="600" ht="47.25" spans="1:14">
+      <c r="A600" s="12"/>
+      <c r="B600" s="16"/>
+      <c r="C600" s="16"/>
+      <c r="D600" s="12"/>
+      <c r="E600" s="16"/>
+      <c r="F600" s="16"/>
+      <c r="G600" s="12"/>
+      <c r="H600" s="16"/>
+      <c r="I600" s="12"/>
+      <c r="J600" s="47"/>
+      <c r="K600" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L600" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="M600" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N600" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="601" ht="31.5" spans="1:14">
+      <c r="A601" s="8">
+        <v>116</v>
+      </c>
+      <c r="B601" s="14">
+        <v>44378</v>
+      </c>
+      <c r="C601" s="14">
+        <v>44378</v>
+      </c>
+      <c r="D601" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E601" s="14">
+        <v>44378</v>
+      </c>
+      <c r="F601" s="14">
+        <v>44378</v>
+      </c>
+      <c r="G601" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H601" s="14">
+        <v>44378</v>
+      </c>
+      <c r="I601" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J601" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K601" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L601" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="M601" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N601" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="602" ht="31.5" spans="1:14">
+      <c r="A602" s="10"/>
+      <c r="B602" s="15"/>
+      <c r="C602" s="15"/>
+      <c r="D602" s="10"/>
+      <c r="E602" s="15"/>
+      <c r="F602" s="15"/>
+      <c r="G602" s="10"/>
+      <c r="H602" s="15"/>
+      <c r="I602" s="10"/>
+      <c r="J602" s="44"/>
+      <c r="K602" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L602" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="M602" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N602" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="603" ht="47.25" spans="1:14">
+      <c r="A603" s="12"/>
+      <c r="B603" s="16"/>
+      <c r="C603" s="16"/>
+      <c r="D603" s="12"/>
+      <c r="E603" s="16"/>
+      <c r="F603" s="16"/>
+      <c r="G603" s="12"/>
+      <c r="H603" s="16"/>
+      <c r="I603" s="12"/>
+      <c r="J603" s="47"/>
+      <c r="K603" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L603" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="M603" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N603" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14">
+      <c r="A604" s="17"/>
+      <c r="B604" s="18"/>
+      <c r="C604" s="18"/>
+      <c r="D604" s="18"/>
+      <c r="E604" s="18"/>
+      <c r="F604" s="18"/>
+      <c r="G604" s="18"/>
+      <c r="H604" s="18"/>
+      <c r="I604" s="18"/>
+      <c r="J604" s="18"/>
+      <c r="K604" s="18"/>
+      <c r="L604" s="18"/>
+      <c r="M604" s="18"/>
+      <c r="N604" s="49"/>
+    </row>
+    <row r="605" ht="31.5" spans="1:14">
+      <c r="A605" s="8">
+        <v>117</v>
+      </c>
+      <c r="B605" s="14">
+        <v>44382</v>
+      </c>
+      <c r="C605" s="14">
+        <v>44382</v>
+      </c>
+      <c r="D605" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E605" s="14">
+        <v>44382</v>
+      </c>
+      <c r="F605" s="14">
+        <v>44382</v>
+      </c>
+      <c r="G605" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H605" s="14">
+        <v>44382</v>
+      </c>
+      <c r="I605" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J605" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K605" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="L605" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="M605" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N605" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="606" ht="47.25" spans="1:14">
+      <c r="A606" s="10"/>
+      <c r="B606" s="15"/>
+      <c r="C606" s="15"/>
+      <c r="D606" s="10"/>
+      <c r="E606" s="15"/>
+      <c r="F606" s="15"/>
+      <c r="G606" s="10"/>
+      <c r="H606" s="15"/>
+      <c r="I606" s="10"/>
+      <c r="J606" s="44"/>
+      <c r="K606" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L606" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="M606" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N606" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="607" ht="31.5" spans="1:14">
+      <c r="A607" s="10"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="15"/>
+      <c r="D607" s="10"/>
+      <c r="E607" s="15"/>
+      <c r="F607" s="15"/>
+      <c r="G607" s="10"/>
+      <c r="H607" s="15"/>
+      <c r="I607" s="10"/>
+      <c r="J607" s="44"/>
+      <c r="K607" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L607" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="M607" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N607" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="608" ht="47.25" spans="1:14">
+      <c r="A608" s="10"/>
+      <c r="B608" s="15"/>
+      <c r="C608" s="15"/>
+      <c r="D608" s="10"/>
+      <c r="E608" s="15"/>
+      <c r="F608" s="15"/>
+      <c r="G608" s="10"/>
+      <c r="H608" s="15"/>
+      <c r="I608" s="10"/>
+      <c r="J608" s="44"/>
+      <c r="K608" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L608" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="M608" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N608" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="609" ht="47.25" spans="1:14">
+      <c r="A609" s="10"/>
+      <c r="B609" s="15"/>
+      <c r="C609" s="15"/>
+      <c r="D609" s="10"/>
+      <c r="E609" s="15"/>
+      <c r="F609" s="15"/>
+      <c r="G609" s="10"/>
+      <c r="H609" s="15"/>
+      <c r="I609" s="10"/>
+      <c r="J609" s="44"/>
+      <c r="K609" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L609" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="M609" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N609" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="610" ht="31.5" spans="1:14">
+      <c r="A610" s="12"/>
+      <c r="B610" s="16"/>
+      <c r="C610" s="16"/>
+      <c r="D610" s="12"/>
+      <c r="E610" s="16"/>
+      <c r="F610" s="16"/>
+      <c r="G610" s="12"/>
+      <c r="H610" s="16"/>
+      <c r="I610" s="12"/>
+      <c r="J610" s="47"/>
+      <c r="K610" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L610" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="M610" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N610" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="611" ht="47.25" spans="1:14">
+      <c r="A611" s="8">
+        <v>118</v>
+      </c>
+      <c r="B611" s="14">
+        <v>44383</v>
+      </c>
+      <c r="C611" s="14">
+        <v>44383</v>
+      </c>
+      <c r="D611" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E611" s="14">
+        <v>44383</v>
+      </c>
+      <c r="F611" s="14">
+        <v>44383</v>
+      </c>
+      <c r="G611" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H611" s="14">
+        <v>44383</v>
+      </c>
+      <c r="I611" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J611" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K611" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L611" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="M611" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N611" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="612" ht="31.5" spans="1:14">
+      <c r="A612" s="10"/>
+      <c r="B612" s="15"/>
+      <c r="C612" s="15"/>
+      <c r="D612" s="10"/>
+      <c r="E612" s="15"/>
+      <c r="F612" s="15"/>
+      <c r="G612" s="10"/>
+      <c r="H612" s="15"/>
+      <c r="I612" s="10"/>
+      <c r="J612" s="44"/>
+      <c r="K612" s="36"/>
+      <c r="L612" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="M612" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N612" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="613" ht="47.25" spans="1:14">
+      <c r="A613" s="10"/>
+      <c r="B613" s="15"/>
+      <c r="C613" s="15"/>
+      <c r="D613" s="10"/>
+      <c r="E613" s="15"/>
+      <c r="F613" s="15"/>
+      <c r="G613" s="10"/>
+      <c r="H613" s="15"/>
+      <c r="I613" s="10"/>
+      <c r="J613" s="44"/>
+      <c r="K613" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L613" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="M613" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N613" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="614" ht="47.25" spans="1:14">
+      <c r="A614" s="10"/>
+      <c r="B614" s="15"/>
+      <c r="C614" s="15"/>
+      <c r="D614" s="10"/>
+      <c r="E614" s="15"/>
+      <c r="F614" s="15"/>
+      <c r="G614" s="10"/>
+      <c r="H614" s="15"/>
+      <c r="I614" s="10"/>
+      <c r="J614" s="44"/>
+      <c r="K614" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L614" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="M614" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N614" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="615" ht="31.5" spans="1:14">
+      <c r="A615" s="12"/>
+      <c r="B615" s="16"/>
+      <c r="C615" s="16"/>
+      <c r="D615" s="12"/>
+      <c r="E615" s="16"/>
+      <c r="F615" s="16"/>
+      <c r="G615" s="12"/>
+      <c r="H615" s="16"/>
+      <c r="I615" s="12"/>
+      <c r="J615" s="47"/>
+      <c r="K615" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L615" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="M615" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N615" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="616" ht="31.5" spans="1:14">
+      <c r="A616" s="8">
+        <v>119</v>
+      </c>
+      <c r="B616" s="14">
+        <v>44384</v>
+      </c>
+      <c r="C616" s="14">
+        <v>44384</v>
+      </c>
+      <c r="D616" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E616" s="14">
+        <v>44384</v>
+      </c>
+      <c r="F616" s="14">
+        <v>44384</v>
+      </c>
+      <c r="G616" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H616" s="14">
+        <v>44384</v>
+      </c>
+      <c r="I616" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J616" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K616" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L616" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="M616" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N616" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14">
+      <c r="A617" s="10"/>
+      <c r="B617" s="15"/>
+      <c r="C617" s="15"/>
+      <c r="D617" s="10"/>
+      <c r="E617" s="15"/>
+      <c r="F617" s="15"/>
+      <c r="G617" s="10"/>
+      <c r="H617" s="15"/>
+      <c r="I617" s="10"/>
+      <c r="J617" s="44"/>
+      <c r="K617" s="35"/>
+      <c r="L617" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="M617" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N617" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="618" ht="31.5" spans="1:14">
+      <c r="A618" s="10"/>
+      <c r="B618" s="15"/>
+      <c r="C618" s="15"/>
+      <c r="D618" s="10"/>
+      <c r="E618" s="15"/>
+      <c r="F618" s="15"/>
+      <c r="G618" s="10"/>
+      <c r="H618" s="15"/>
+      <c r="I618" s="10"/>
+      <c r="J618" s="44"/>
+      <c r="K618" s="36"/>
+      <c r="L618" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="M618" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N618" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="619" ht="31.5" spans="1:14">
+      <c r="A619" s="10"/>
+      <c r="B619" s="15"/>
+      <c r="C619" s="15"/>
+      <c r="D619" s="10"/>
+      <c r="E619" s="15"/>
+      <c r="F619" s="15"/>
+      <c r="G619" s="10"/>
+      <c r="H619" s="15"/>
+      <c r="I619" s="10"/>
+      <c r="J619" s="44"/>
+      <c r="K619" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L619" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="M619" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N619" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="620" ht="31.5" spans="1:14">
+      <c r="A620" s="10"/>
+      <c r="B620" s="15"/>
+      <c r="C620" s="15"/>
+      <c r="D620" s="10"/>
+      <c r="E620" s="15"/>
+      <c r="F620" s="15"/>
+      <c r="G620" s="10"/>
+      <c r="H620" s="15"/>
+      <c r="I620" s="10"/>
+      <c r="J620" s="44"/>
+      <c r="K620" s="35"/>
+      <c r="L620" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="M620" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N620" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="621" ht="47.25" spans="1:14">
+      <c r="A621" s="12"/>
+      <c r="B621" s="16"/>
+      <c r="C621" s="16"/>
+      <c r="D621" s="12"/>
+      <c r="E621" s="16"/>
+      <c r="F621" s="16"/>
+      <c r="G621" s="12"/>
+      <c r="H621" s="16"/>
+      <c r="I621" s="12"/>
+      <c r="J621" s="47"/>
+      <c r="K621" s="36"/>
+      <c r="L621" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="M621" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N621" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="622" ht="31.5" spans="1:14">
+      <c r="A622" s="8">
+        <v>120</v>
+      </c>
+      <c r="B622" s="14">
+        <v>44385</v>
+      </c>
+      <c r="C622" s="14">
+        <v>44385</v>
+      </c>
+      <c r="D622" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E622" s="14">
+        <v>44385</v>
+      </c>
+      <c r="F622" s="14">
+        <v>44385</v>
+      </c>
+      <c r="G622" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H622" s="14">
+        <v>44385</v>
+      </c>
+      <c r="I622" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J622" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K622" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L622" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="M622" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N622" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="623" ht="31.5" spans="1:14">
+      <c r="A623" s="12"/>
+      <c r="B623" s="16"/>
+      <c r="C623" s="16"/>
+      <c r="D623" s="12"/>
+      <c r="E623" s="16"/>
+      <c r="F623" s="16"/>
+      <c r="G623" s="12"/>
+      <c r="H623" s="16"/>
+      <c r="I623" s="12"/>
+      <c r="J623" s="47"/>
+      <c r="K623" s="36"/>
+      <c r="L623" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="M623" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N623" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="624" ht="31.5" spans="1:14">
+      <c r="A624" s="8">
+        <v>121</v>
+      </c>
+      <c r="B624" s="14">
+        <v>44386</v>
+      </c>
+      <c r="C624" s="14">
+        <v>44386</v>
+      </c>
+      <c r="D624" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E624" s="14">
+        <v>44386</v>
+      </c>
+      <c r="F624" s="14">
+        <v>44386</v>
+      </c>
+      <c r="G624" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H624" s="14">
+        <v>44386</v>
+      </c>
+      <c r="I624" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J624" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K624" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L624" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="M624" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N624" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="625" ht="31.5" spans="1:14">
+      <c r="A625" s="12"/>
+      <c r="B625" s="16"/>
+      <c r="C625" s="16"/>
+      <c r="D625" s="12"/>
+      <c r="E625" s="16"/>
+      <c r="F625" s="16"/>
+      <c r="G625" s="12"/>
+      <c r="H625" s="16"/>
+      <c r="I625" s="12"/>
+      <c r="J625" s="47"/>
+      <c r="K625" s="36"/>
+      <c r="L625" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="M625" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N625" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14">
+      <c r="A626" s="17"/>
+      <c r="B626" s="18"/>
+      <c r="C626" s="18"/>
+      <c r="D626" s="18"/>
+      <c r="E626" s="18"/>
+      <c r="F626" s="18"/>
+      <c r="G626" s="18"/>
+      <c r="H626" s="18"/>
+      <c r="I626" s="18"/>
+      <c r="J626" s="18"/>
+      <c r="K626" s="18"/>
+      <c r="L626" s="18"/>
+      <c r="M626" s="18"/>
+      <c r="N626" s="49"/>
+    </row>
+    <row r="627" ht="31.5" spans="1:14">
+      <c r="A627" s="8">
+        <v>122</v>
+      </c>
+      <c r="B627" s="14">
+        <v>44389</v>
+      </c>
+      <c r="C627" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D627" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E627" s="14">
+        <v>44389</v>
+      </c>
+      <c r="F627" s="14">
+        <v>44389</v>
+      </c>
+      <c r="G627" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H627" s="14">
+        <v>44389</v>
+      </c>
+      <c r="I627" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J627" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K627" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L627" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="M627" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N627" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="628" ht="31.5" spans="1:14">
+      <c r="A628" s="10"/>
+      <c r="B628" s="15"/>
+      <c r="C628" s="15"/>
+      <c r="D628" s="10"/>
+      <c r="E628" s="15"/>
+      <c r="F628" s="15"/>
+      <c r="G628" s="10"/>
+      <c r="H628" s="15"/>
+      <c r="I628" s="10"/>
+      <c r="J628" s="44"/>
+      <c r="K628" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L628" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="M628" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N628" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="629" ht="31.5" spans="1:14">
+      <c r="A629" s="12"/>
+      <c r="B629" s="16"/>
+      <c r="C629" s="16"/>
+      <c r="D629" s="12"/>
+      <c r="E629" s="16"/>
+      <c r="F629" s="16"/>
+      <c r="G629" s="12"/>
+      <c r="H629" s="16"/>
+      <c r="I629" s="12"/>
+      <c r="J629" s="47"/>
+      <c r="K629" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L629" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="M629" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="N629" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="630" ht="31.5" spans="1:14">
+      <c r="A630" s="8">
+        <v>123</v>
+      </c>
+      <c r="B630" s="14">
+        <v>44390</v>
+      </c>
+      <c r="C630" s="14">
+        <v>44390</v>
+      </c>
+      <c r="D630" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E630" s="14">
+        <v>44390</v>
+      </c>
+      <c r="F630" s="14">
+        <v>44390</v>
+      </c>
+      <c r="G630" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H630" s="14">
+        <v>44390</v>
+      </c>
+      <c r="I630" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J630" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K630" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L630" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="M630" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N630" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14">
+      <c r="A631" s="10"/>
+      <c r="B631" s="15"/>
+      <c r="C631" s="15"/>
+      <c r="D631" s="10"/>
+      <c r="E631" s="15"/>
+      <c r="F631" s="15"/>
+      <c r="G631" s="10"/>
+      <c r="H631" s="15"/>
+      <c r="I631" s="10"/>
+      <c r="J631" s="44"/>
+      <c r="K631" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L631" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="M631" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N631" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="632" ht="31.5" spans="1:14">
+      <c r="A632" s="12"/>
+      <c r="B632" s="16"/>
+      <c r="C632" s="16"/>
+      <c r="D632" s="12"/>
+      <c r="E632" s="16"/>
+      <c r="F632" s="16"/>
+      <c r="G632" s="12"/>
+      <c r="H632" s="16"/>
+      <c r="I632" s="12"/>
+      <c r="J632" s="47"/>
+      <c r="K632" s="36"/>
+      <c r="L632" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="M632" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="N632" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="633" ht="31.5" spans="1:14">
+      <c r="A633" s="8">
+        <v>124</v>
+      </c>
+      <c r="B633" s="14">
+        <v>44391</v>
+      </c>
+      <c r="C633" s="14">
+        <v>44391</v>
+      </c>
+      <c r="D633" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E633" s="14">
+        <v>44391</v>
+      </c>
+      <c r="F633" s="14">
+        <v>44391</v>
+      </c>
+      <c r="G633" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H633" s="14">
+        <v>44391</v>
+      </c>
+      <c r="I633" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J633" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K633" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L633" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="M633" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N633" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="634" ht="31.5" spans="1:14">
+      <c r="A634" s="10"/>
+      <c r="B634" s="15"/>
+      <c r="C634" s="15"/>
+      <c r="D634" s="10"/>
+      <c r="E634" s="15"/>
+      <c r="F634" s="15"/>
+      <c r="G634" s="10"/>
+      <c r="H634" s="15"/>
+      <c r="I634" s="10"/>
+      <c r="J634" s="44"/>
+      <c r="K634" s="35"/>
+      <c r="L634" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="M634" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N634" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14">
+      <c r="A635" s="12"/>
+      <c r="B635" s="16"/>
+      <c r="C635" s="16"/>
+      <c r="D635" s="12"/>
+      <c r="E635" s="16"/>
+      <c r="F635" s="16"/>
+      <c r="G635" s="12"/>
+      <c r="H635" s="16"/>
+      <c r="I635" s="12"/>
+      <c r="J635" s="47"/>
+      <c r="K635" s="36"/>
+      <c r="L635" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="M635" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N635" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14">
+      <c r="A636" s="8">
+        <v>125</v>
+      </c>
+      <c r="B636" s="14">
+        <v>44392</v>
+      </c>
+      <c r="C636" s="14">
+        <v>44392</v>
+      </c>
+      <c r="D636" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E636" s="14">
+        <v>44392</v>
+      </c>
+      <c r="F636" s="14">
+        <v>44392</v>
+      </c>
+      <c r="G636" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H636" s="14">
+        <v>44392</v>
+      </c>
+      <c r="I636" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J636" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K636" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="L636" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="M636" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N636" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="637" ht="31.5" spans="1:14">
+      <c r="A637" s="12"/>
+      <c r="B637" s="16"/>
+      <c r="C637" s="16"/>
+      <c r="D637" s="12"/>
+      <c r="E637" s="16"/>
+      <c r="F637" s="16"/>
+      <c r="G637" s="12"/>
+      <c r="H637" s="16"/>
+      <c r="I637" s="12"/>
+      <c r="J637" s="47"/>
+      <c r="K637" s="36"/>
+      <c r="L637" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="M637" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N637" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="638" ht="31.5" spans="1:14">
+      <c r="A638" s="8">
+        <v>126</v>
+      </c>
+      <c r="B638" s="14">
+        <v>44393</v>
+      </c>
+      <c r="C638" s="14">
+        <v>44393</v>
+      </c>
+      <c r="D638" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E638" s="14">
+        <v>44393</v>
+      </c>
+      <c r="F638" s="14">
+        <v>44393</v>
+      </c>
+      <c r="G638" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H638" s="14">
+        <v>44393</v>
+      </c>
+      <c r="I638" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J638" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K638" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L638" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="M638" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N638" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="639" ht="31.5" spans="1:14">
+      <c r="A639" s="10"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="15"/>
+      <c r="D639" s="10"/>
+      <c r="E639" s="15"/>
+      <c r="F639" s="15"/>
+      <c r="G639" s="10"/>
+      <c r="H639" s="15"/>
+      <c r="I639" s="10"/>
+      <c r="J639" s="44"/>
+      <c r="K639" s="36"/>
+      <c r="L639" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="M639" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N639" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="640" ht="31.5" spans="1:14">
+      <c r="A640" s="10"/>
+      <c r="B640" s="15"/>
+      <c r="C640" s="15"/>
+      <c r="D640" s="10"/>
+      <c r="E640" s="15"/>
+      <c r="F640" s="15"/>
+      <c r="G640" s="10"/>
+      <c r="H640" s="15"/>
+      <c r="I640" s="10"/>
+      <c r="J640" s="44"/>
+      <c r="K640" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L640" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="M640" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N640" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="641" ht="47.25" spans="1:14">
+      <c r="A641" s="10"/>
+      <c r="B641" s="15"/>
+      <c r="C641" s="15"/>
+      <c r="D641" s="10"/>
+      <c r="E641" s="15"/>
+      <c r="F641" s="15"/>
+      <c r="G641" s="10"/>
+      <c r="H641" s="15"/>
+      <c r="I641" s="10"/>
+      <c r="J641" s="44"/>
+      <c r="K641" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="L641" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="M641" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N641" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="642" ht="31.5" spans="1:14">
+      <c r="A642" s="12"/>
+      <c r="B642" s="16"/>
+      <c r="C642" s="16"/>
+      <c r="D642" s="12"/>
+      <c r="E642" s="16"/>
+      <c r="F642" s="16"/>
+      <c r="G642" s="12"/>
+      <c r="H642" s="16"/>
+      <c r="I642" s="12"/>
+      <c r="J642" s="47"/>
+      <c r="K642" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="L642" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="M642" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N642" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14">
+      <c r="A643" s="17"/>
+      <c r="B643" s="18"/>
+      <c r="C643" s="18"/>
+      <c r="D643" s="18"/>
+      <c r="E643" s="18"/>
+      <c r="F643" s="18"/>
+      <c r="G643" s="18"/>
+      <c r="H643" s="18"/>
+      <c r="I643" s="18"/>
+      <c r="J643" s="18"/>
+      <c r="K643" s="18"/>
+      <c r="L643" s="18"/>
+      <c r="M643" s="18"/>
+      <c r="N643" s="49"/>
+    </row>
+    <row r="644" ht="31.5" spans="1:14">
+      <c r="A644" s="8">
+        <v>127</v>
+      </c>
+      <c r="B644" s="14">
+        <v>44396</v>
+      </c>
+      <c r="C644" s="14">
+        <v>44396</v>
+      </c>
+      <c r="D644" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E644" s="14">
+        <v>44396</v>
+      </c>
+      <c r="F644" s="14">
+        <v>44396</v>
+      </c>
+      <c r="G644" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H644" s="14">
+        <v>44396</v>
+      </c>
+      <c r="I644" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J644" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K644" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="L644" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="M644" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N644" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="645" ht="31.5" spans="1:14">
+      <c r="A645" s="12"/>
+      <c r="B645" s="16"/>
+      <c r="C645" s="16"/>
+      <c r="D645" s="12"/>
+      <c r="E645" s="16"/>
+      <c r="F645" s="16"/>
+      <c r="G645" s="12"/>
+      <c r="H645" s="16"/>
+      <c r="I645" s="12"/>
+      <c r="J645" s="47"/>
+      <c r="K645" s="36"/>
+      <c r="L645" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="M645" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N645" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="646" ht="31.5" spans="1:14">
+      <c r="A646" s="8">
+        <v>128</v>
+      </c>
+      <c r="B646" s="14">
+        <v>44398</v>
+      </c>
+      <c r="C646" s="14">
+        <v>44398</v>
+      </c>
+      <c r="D646" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E646" s="14">
+        <v>44398</v>
+      </c>
+      <c r="F646" s="14">
+        <v>44398</v>
+      </c>
+      <c r="G646" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H646" s="14">
+        <v>44398</v>
+      </c>
+      <c r="I646" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J646" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K646" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L646" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="M646" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N646" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="647" ht="31.5" spans="1:14">
+      <c r="A647" s="10"/>
+      <c r="B647" s="15"/>
+      <c r="C647" s="15"/>
+      <c r="D647" s="10"/>
+      <c r="E647" s="15"/>
+      <c r="F647" s="15"/>
+      <c r="G647" s="10"/>
+      <c r="H647" s="15"/>
+      <c r="I647" s="10"/>
+      <c r="J647" s="44"/>
+      <c r="K647" s="35"/>
+      <c r="L647" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="M647" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N647" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="648" ht="31.5" spans="1:14">
+      <c r="A648" s="10"/>
+      <c r="B648" s="15"/>
+      <c r="C648" s="15"/>
+      <c r="D648" s="10"/>
+      <c r="E648" s="15"/>
+      <c r="F648" s="15"/>
+      <c r="G648" s="10"/>
+      <c r="H648" s="15"/>
+      <c r="I648" s="10"/>
+      <c r="J648" s="44"/>
+      <c r="K648" s="36"/>
+      <c r="L648" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="M648" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N648" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="649" ht="31.5" spans="1:14">
+      <c r="A649" s="12"/>
+      <c r="B649" s="16"/>
+      <c r="C649" s="16"/>
+      <c r="D649" s="12"/>
+      <c r="E649" s="16"/>
+      <c r="F649" s="16"/>
+      <c r="G649" s="12"/>
+      <c r="H649" s="16"/>
+      <c r="I649" s="12"/>
+      <c r="J649" s="47"/>
+      <c r="K649" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L649" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="M649" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N649" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="650" ht="31.5" spans="1:14">
+      <c r="A650" s="8">
+        <v>129</v>
+      </c>
+      <c r="B650" s="14">
+        <v>44399</v>
+      </c>
+      <c r="C650" s="14">
+        <v>44399</v>
+      </c>
+      <c r="D650" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E650" s="14">
+        <v>44399</v>
+      </c>
+      <c r="F650" s="14">
+        <v>44399</v>
+      </c>
+      <c r="G650" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H650" s="14">
+        <v>44399</v>
+      </c>
+      <c r="I650" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J650" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K650" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L650" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="M650" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N650" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="651" ht="31.5" spans="1:14">
+      <c r="A651" s="10"/>
+      <c r="B651" s="15"/>
+      <c r="C651" s="15"/>
+      <c r="D651" s="10"/>
+      <c r="E651" s="15"/>
+      <c r="F651" s="15"/>
+      <c r="G651" s="10"/>
+      <c r="H651" s="15"/>
+      <c r="I651" s="10"/>
+      <c r="J651" s="44"/>
+      <c r="K651" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L651" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="M651" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N651" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14">
+      <c r="A652" s="10"/>
+      <c r="B652" s="15"/>
+      <c r="C652" s="15"/>
+      <c r="D652" s="10"/>
+      <c r="E652" s="15"/>
+      <c r="F652" s="15"/>
+      <c r="G652" s="10"/>
+      <c r="H652" s="15"/>
+      <c r="I652" s="10"/>
+      <c r="J652" s="44"/>
+      <c r="K652" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="L652" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="M652" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N652" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="653" ht="31.5" spans="1:14">
+      <c r="A653" s="10"/>
+      <c r="B653" s="15"/>
+      <c r="C653" s="15"/>
+      <c r="D653" s="10"/>
+      <c r="E653" s="15"/>
+      <c r="F653" s="15"/>
+      <c r="G653" s="10"/>
+      <c r="H653" s="15"/>
+      <c r="I653" s="10"/>
+      <c r="J653" s="44"/>
+      <c r="K653" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="L653" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="M653" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N653" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="654" ht="31.5" spans="1:14">
+      <c r="A654" s="12"/>
+      <c r="B654" s="16"/>
+      <c r="C654" s="16"/>
+      <c r="D654" s="12"/>
+      <c r="E654" s="16"/>
+      <c r="F654" s="16"/>
+      <c r="G654" s="12"/>
+      <c r="H654" s="16"/>
+      <c r="I654" s="12"/>
+      <c r="J654" s="47"/>
+      <c r="K654" s="36"/>
+      <c r="L654" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="M654" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N654" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="655" ht="31.5" spans="1:14">
+      <c r="A655" s="8">
+        <v>130</v>
+      </c>
+      <c r="B655" s="14">
+        <v>44400</v>
+      </c>
+      <c r="C655" s="14">
+        <v>44400</v>
+      </c>
+      <c r="D655" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E655" s="14">
+        <v>44400</v>
+      </c>
+      <c r="F655" s="14">
+        <v>44400</v>
+      </c>
+      <c r="G655" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H655" s="14">
+        <v>44400</v>
+      </c>
+      <c r="I655" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J655" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K655" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L655" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="M655" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N655" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="656" ht="31.5" spans="1:14">
+      <c r="A656" s="10"/>
+      <c r="B656" s="15"/>
+      <c r="C656" s="15"/>
+      <c r="D656" s="10"/>
+      <c r="E656" s="15"/>
+      <c r="F656" s="15"/>
+      <c r="G656" s="10"/>
+      <c r="H656" s="15"/>
+      <c r="I656" s="10"/>
+      <c r="J656" s="44"/>
+      <c r="K656" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L656" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="M656" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N656" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="657" ht="31.5" spans="1:14">
+      <c r="A657" s="10"/>
+      <c r="B657" s="15"/>
+      <c r="C657" s="15"/>
+      <c r="D657" s="10"/>
+      <c r="E657" s="15"/>
+      <c r="F657" s="15"/>
+      <c r="G657" s="10"/>
+      <c r="H657" s="15"/>
+      <c r="I657" s="10"/>
+      <c r="J657" s="44"/>
+      <c r="K657" s="35"/>
+      <c r="L657" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="M657" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N657" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="658" ht="47.25" spans="1:14">
+      <c r="A658" s="10"/>
+      <c r="B658" s="15"/>
+      <c r="C658" s="15"/>
+      <c r="D658" s="10"/>
+      <c r="E658" s="15"/>
+      <c r="F658" s="15"/>
+      <c r="G658" s="10"/>
+      <c r="H658" s="15"/>
+      <c r="I658" s="10"/>
+      <c r="J658" s="44"/>
+      <c r="K658" s="35"/>
+      <c r="L658" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="M658" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N658" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="659" ht="31.5" spans="1:14">
+      <c r="A659" s="10"/>
+      <c r="B659" s="15"/>
+      <c r="C659" s="15"/>
+      <c r="D659" s="10"/>
+      <c r="E659" s="15"/>
+      <c r="F659" s="15"/>
+      <c r="G659" s="10"/>
+      <c r="H659" s="15"/>
+      <c r="I659" s="10"/>
+      <c r="J659" s="44"/>
+      <c r="K659" s="35"/>
+      <c r="L659" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="M659" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N659" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="660" ht="31.5" spans="1:14">
+      <c r="A660" s="10"/>
+      <c r="B660" s="15"/>
+      <c r="C660" s="15"/>
+      <c r="D660" s="10"/>
+      <c r="E660" s="15"/>
+      <c r="F660" s="15"/>
+      <c r="G660" s="10"/>
+      <c r="H660" s="15"/>
+      <c r="I660" s="10"/>
+      <c r="J660" s="44"/>
+      <c r="K660" s="36"/>
+      <c r="L660" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="M660" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N660" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="661" ht="31.5" spans="1:14">
+      <c r="A661" s="12"/>
+      <c r="B661" s="16"/>
+      <c r="C661" s="16"/>
+      <c r="D661" s="12"/>
+      <c r="E661" s="16"/>
+      <c r="F661" s="16"/>
+      <c r="G661" s="12"/>
+      <c r="H661" s="16"/>
+      <c r="I661" s="12"/>
+      <c r="J661" s="47"/>
+      <c r="K661" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L661" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="M661" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N661" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14">
+      <c r="A662" s="17"/>
+      <c r="B662" s="18"/>
+      <c r="C662" s="18"/>
+      <c r="D662" s="18"/>
+      <c r="E662" s="18"/>
+      <c r="F662" s="18"/>
+      <c r="G662" s="18"/>
+      <c r="H662" s="18"/>
+      <c r="I662" s="18"/>
+      <c r="J662" s="18"/>
+      <c r="K662" s="18"/>
+      <c r="L662" s="18"/>
+      <c r="M662" s="18"/>
+      <c r="N662" s="49"/>
+    </row>
+    <row r="663" ht="47.25" spans="1:14">
+      <c r="A663" s="8">
+        <v>131</v>
+      </c>
+      <c r="B663" s="14">
+        <v>44403</v>
+      </c>
+      <c r="C663" s="14">
+        <v>44403</v>
+      </c>
+      <c r="D663" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E663" s="14">
+        <v>44403</v>
+      </c>
+      <c r="F663" s="14">
+        <v>44404</v>
+      </c>
+      <c r="G663" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H663" s="14">
+        <v>44404</v>
+      </c>
+      <c r="I663" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J663" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K663" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="L663" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="M663" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N663" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="664" ht="31.5" spans="1:14">
+      <c r="A664" s="10"/>
+      <c r="B664" s="15"/>
+      <c r="C664" s="15"/>
+      <c r="D664" s="10"/>
+      <c r="E664" s="15"/>
+      <c r="F664" s="15"/>
+      <c r="G664" s="15"/>
+      <c r="H664" s="15"/>
+      <c r="I664" s="10"/>
+      <c r="J664" s="44"/>
+      <c r="K664" s="35"/>
+      <c r="L664" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="M664" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N664" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14">
+      <c r="A665" s="12"/>
+      <c r="B665" s="16"/>
+      <c r="C665" s="16"/>
+      <c r="D665" s="12"/>
+      <c r="E665" s="16"/>
+      <c r="F665" s="16"/>
+      <c r="G665" s="16"/>
+      <c r="H665" s="16"/>
+      <c r="I665" s="12"/>
+      <c r="J665" s="47"/>
+      <c r="K665" s="36"/>
+      <c r="L665" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="M665" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="N665" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14">
+      <c r="A666" s="8">
+        <v>132</v>
+      </c>
+      <c r="B666" s="14">
+        <v>44404</v>
+      </c>
+      <c r="C666" s="20">
+        <v>44403</v>
+      </c>
+      <c r="D666" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E666" s="20">
+        <v>44403</v>
+      </c>
+      <c r="F666" s="14">
+        <v>44404</v>
+      </c>
+      <c r="G666" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H666" s="14">
+        <v>44404</v>
+      </c>
+      <c r="I666" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J666" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K666" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="L666" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="M666" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N666" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="667" ht="31.5" spans="1:14">
+      <c r="A667" s="12"/>
+      <c r="B667" s="16"/>
+      <c r="C667" s="20">
+        <v>44404</v>
+      </c>
+      <c r="D667" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E667" s="20">
+        <v>44404</v>
+      </c>
+      <c r="F667" s="16"/>
+      <c r="G667" s="12"/>
+      <c r="H667" s="16"/>
+      <c r="I667" s="12"/>
+      <c r="J667" s="47"/>
+      <c r="K667" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="L667" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="M667" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N667" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="668" ht="31.5" spans="1:14">
+      <c r="A668" s="8">
+        <v>133</v>
+      </c>
+      <c r="B668" s="14">
+        <v>44405</v>
+      </c>
+      <c r="C668" s="14">
+        <v>44405</v>
+      </c>
+      <c r="D668" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E668" s="14">
+        <v>44405</v>
+      </c>
+      <c r="F668" s="14">
+        <v>44405</v>
+      </c>
+      <c r="G668" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H668" s="14">
+        <v>44405</v>
+      </c>
+      <c r="I668" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J668" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K668" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L668" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="M668" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N668" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="669" ht="31.5" spans="1:14">
+      <c r="A669" s="10"/>
+      <c r="B669" s="15"/>
+      <c r="C669" s="15"/>
+      <c r="D669" s="10"/>
+      <c r="E669" s="15"/>
+      <c r="F669" s="15"/>
+      <c r="G669" s="10"/>
+      <c r="H669" s="15"/>
+      <c r="I669" s="10"/>
+      <c r="J669" s="44"/>
+      <c r="K669" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L669" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="M669" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N669" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="670" ht="31.5" spans="1:14">
+      <c r="A670" s="12"/>
+      <c r="B670" s="16"/>
+      <c r="C670" s="16"/>
+      <c r="D670" s="12"/>
+      <c r="E670" s="16"/>
+      <c r="F670" s="16"/>
+      <c r="G670" s="12"/>
+      <c r="H670" s="16"/>
+      <c r="I670" s="12"/>
+      <c r="J670" s="47"/>
+      <c r="K670" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="L670" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="M670" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N670" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="671" ht="47.25" spans="1:14">
+      <c r="A671" s="8">
+        <v>134</v>
+      </c>
+      <c r="B671" s="14">
+        <v>44406</v>
+      </c>
+      <c r="C671" s="14">
+        <v>44406</v>
+      </c>
+      <c r="D671" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E671" s="14">
+        <v>44406</v>
+      </c>
+      <c r="F671" s="14">
+        <v>44406</v>
+      </c>
+      <c r="G671" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H671" s="14">
+        <v>44406</v>
+      </c>
+      <c r="I671" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J671" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K671" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L671" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="M671" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N671" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="672" ht="31.5" spans="1:14">
+      <c r="A672" s="12"/>
+      <c r="B672" s="16"/>
+      <c r="C672" s="16"/>
+      <c r="D672" s="12"/>
+      <c r="E672" s="16"/>
+      <c r="F672" s="16"/>
+      <c r="G672" s="70"/>
+      <c r="H672" s="16"/>
+      <c r="I672" s="12"/>
+      <c r="J672" s="12"/>
+      <c r="K672" s="36"/>
+      <c r="L672" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="M672" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N672" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="673" ht="31.5" spans="1:14">
+      <c r="A673" s="19">
+        <v>135</v>
+      </c>
+      <c r="B673" s="20">
+        <v>44407</v>
+      </c>
+      <c r="C673" s="20">
+        <v>44407</v>
+      </c>
+      <c r="D673" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E673" s="20">
+        <v>44407</v>
+      </c>
+      <c r="F673" s="20">
+        <v>44407</v>
+      </c>
+      <c r="G673" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H673" s="20">
+        <v>44407</v>
+      </c>
+      <c r="I673" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J673" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K673" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L673" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="M673" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N673" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14">
+      <c r="A674" s="19"/>
+      <c r="B674" s="20"/>
+      <c r="C674" s="20"/>
+      <c r="D674" s="19"/>
+      <c r="E674" s="20"/>
+      <c r="F674" s="20"/>
+      <c r="G674" s="19"/>
+      <c r="H674" s="20"/>
+      <c r="I674" s="19"/>
+      <c r="J674" s="38"/>
+      <c r="K674" s="46"/>
+      <c r="L674" s="31"/>
+      <c r="M674" s="19"/>
+      <c r="N674" s="19"/>
+    </row>
+    <row r="675" spans="1:14">
+      <c r="A675" s="19"/>
+      <c r="B675" s="20"/>
+      <c r="C675" s="20"/>
+      <c r="D675" s="19"/>
+      <c r="E675" s="20"/>
+      <c r="F675" s="20"/>
+      <c r="G675" s="19"/>
+      <c r="H675" s="20"/>
+      <c r="I675" s="19"/>
+      <c r="J675" s="38"/>
+      <c r="K675" s="46"/>
+      <c r="L675" s="31"/>
+      <c r="M675" s="19"/>
+      <c r="N675" s="19"/>
+    </row>
+    <row r="676" spans="1:14">
+      <c r="A676" s="19"/>
+      <c r="B676" s="20"/>
+      <c r="C676" s="20"/>
+      <c r="D676" s="19"/>
+      <c r="E676" s="20"/>
+      <c r="F676" s="20"/>
+      <c r="G676" s="19"/>
+      <c r="H676" s="20"/>
+      <c r="I676" s="19"/>
+      <c r="J676" s="38"/>
+      <c r="K676" s="46"/>
+      <c r="L676" s="31"/>
+      <c r="M676" s="19"/>
+      <c r="N676" s="19"/>
+    </row>
+    <row r="677" spans="1:14">
+      <c r="A677" s="19"/>
+      <c r="B677" s="20"/>
+      <c r="C677" s="20"/>
+      <c r="D677" s="19"/>
+      <c r="E677" s="20"/>
+      <c r="F677" s="20"/>
+      <c r="G677" s="19"/>
+      <c r="H677" s="20"/>
+      <c r="I677" s="19"/>
+      <c r="J677" s="38"/>
+      <c r="K677" s="46"/>
+      <c r="L677" s="31"/>
+      <c r="M677" s="19"/>
+      <c r="N677" s="19"/>
+    </row>
+    <row r="678" spans="1:14">
+      <c r="A678" s="19"/>
+      <c r="B678" s="20"/>
+      <c r="C678" s="20"/>
+      <c r="D678" s="19"/>
+      <c r="E678" s="20"/>
+      <c r="F678" s="20"/>
+      <c r="G678" s="19"/>
+      <c r="H678" s="20"/>
+      <c r="I678" s="19"/>
+      <c r="J678" s="38"/>
+      <c r="K678" s="46"/>
+      <c r="L678" s="31"/>
+      <c r="M678" s="19"/>
+      <c r="N678" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="948">
+  <mergeCells count="1495">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A47:N47"/>
@@ -16291,6 +23086,18 @@
     <mergeCell ref="A404:N404"/>
     <mergeCell ref="A425:N425"/>
     <mergeCell ref="A443:N443"/>
+    <mergeCell ref="A451:N451"/>
+    <mergeCell ref="A473:N473"/>
+    <mergeCell ref="A486:N486"/>
+    <mergeCell ref="A489:N489"/>
+    <mergeCell ref="A507:N507"/>
+    <mergeCell ref="A532:N532"/>
+    <mergeCell ref="A551:N551"/>
+    <mergeCell ref="A578:N578"/>
+    <mergeCell ref="A604:N604"/>
+    <mergeCell ref="A626:N626"/>
+    <mergeCell ref="A643:N643"/>
+    <mergeCell ref="A662:N662"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A41"/>
@@ -16369,6 +23176,54 @@
     <mergeCell ref="A441:A442"/>
     <mergeCell ref="A444:A446"/>
     <mergeCell ref="A447:A450"/>
+    <mergeCell ref="A453:A454"/>
+    <mergeCell ref="A455:A464"/>
+    <mergeCell ref="A465:A472"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="A478:A480"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="A483:A485"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="A490:A497"/>
+    <mergeCell ref="A498:A502"/>
+    <mergeCell ref="A503:A506"/>
+    <mergeCell ref="A508:A510"/>
+    <mergeCell ref="A511:A519"/>
+    <mergeCell ref="A520:A525"/>
+    <mergeCell ref="A526:A528"/>
+    <mergeCell ref="A529:A531"/>
+    <mergeCell ref="A533:A535"/>
+    <mergeCell ref="A536:A539"/>
+    <mergeCell ref="A540:A542"/>
+    <mergeCell ref="A543:A546"/>
+    <mergeCell ref="A547:A550"/>
+    <mergeCell ref="A552:A558"/>
+    <mergeCell ref="A559:A563"/>
+    <mergeCell ref="A564:A568"/>
+    <mergeCell ref="A569:A570"/>
+    <mergeCell ref="A571:A577"/>
+    <mergeCell ref="A579:A588"/>
+    <mergeCell ref="A589:A596"/>
+    <mergeCell ref="A597:A600"/>
+    <mergeCell ref="A601:A603"/>
+    <mergeCell ref="A605:A610"/>
+    <mergeCell ref="A611:A615"/>
+    <mergeCell ref="A616:A621"/>
+    <mergeCell ref="A622:A623"/>
+    <mergeCell ref="A624:A625"/>
+    <mergeCell ref="A627:A629"/>
+    <mergeCell ref="A630:A632"/>
+    <mergeCell ref="A633:A635"/>
+    <mergeCell ref="A636:A637"/>
+    <mergeCell ref="A638:A642"/>
+    <mergeCell ref="A644:A645"/>
+    <mergeCell ref="A646:A649"/>
+    <mergeCell ref="A650:A654"/>
+    <mergeCell ref="A655:A661"/>
+    <mergeCell ref="A663:A665"/>
+    <mergeCell ref="A666:A667"/>
+    <mergeCell ref="A668:A670"/>
+    <mergeCell ref="A671:A672"/>
     <mergeCell ref="B6:B16"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B41"/>
@@ -16447,6 +23302,54 @@
     <mergeCell ref="B441:B442"/>
     <mergeCell ref="B444:B446"/>
     <mergeCell ref="B447:B450"/>
+    <mergeCell ref="B453:B454"/>
+    <mergeCell ref="B455:B464"/>
+    <mergeCell ref="B465:B472"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="B478:B480"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="B483:B485"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="B490:B497"/>
+    <mergeCell ref="B498:B502"/>
+    <mergeCell ref="B503:B506"/>
+    <mergeCell ref="B508:B510"/>
+    <mergeCell ref="B511:B519"/>
+    <mergeCell ref="B520:B525"/>
+    <mergeCell ref="B526:B528"/>
+    <mergeCell ref="B529:B531"/>
+    <mergeCell ref="B533:B535"/>
+    <mergeCell ref="B536:B539"/>
+    <mergeCell ref="B540:B542"/>
+    <mergeCell ref="B543:B546"/>
+    <mergeCell ref="B547:B550"/>
+    <mergeCell ref="B552:B558"/>
+    <mergeCell ref="B559:B563"/>
+    <mergeCell ref="B564:B568"/>
+    <mergeCell ref="B569:B570"/>
+    <mergeCell ref="B571:B577"/>
+    <mergeCell ref="B579:B588"/>
+    <mergeCell ref="B589:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B603"/>
+    <mergeCell ref="B605:B610"/>
+    <mergeCell ref="B611:B615"/>
+    <mergeCell ref="B616:B621"/>
+    <mergeCell ref="B622:B623"/>
+    <mergeCell ref="B624:B625"/>
+    <mergeCell ref="B627:B629"/>
+    <mergeCell ref="B630:B632"/>
+    <mergeCell ref="B633:B635"/>
+    <mergeCell ref="B636:B637"/>
+    <mergeCell ref="B638:B642"/>
+    <mergeCell ref="B644:B645"/>
+    <mergeCell ref="B646:B649"/>
+    <mergeCell ref="B650:B654"/>
+    <mergeCell ref="B655:B661"/>
+    <mergeCell ref="B663:B665"/>
+    <mergeCell ref="B666:B667"/>
+    <mergeCell ref="B668:B670"/>
+    <mergeCell ref="B671:B672"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C22:C41"/>
@@ -16532,6 +23435,54 @@
     <mergeCell ref="C441:C442"/>
     <mergeCell ref="C444:C446"/>
     <mergeCell ref="C447:C450"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="C456:C464"/>
+    <mergeCell ref="C465:C472"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="C478:C480"/>
+    <mergeCell ref="C481:C482"/>
+    <mergeCell ref="C483:C485"/>
+    <mergeCell ref="C487:C488"/>
+    <mergeCell ref="C490:C497"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="C503:C504"/>
+    <mergeCell ref="C505:C506"/>
+    <mergeCell ref="C508:C510"/>
+    <mergeCell ref="C511:C519"/>
+    <mergeCell ref="C520:C525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="C529:C531"/>
+    <mergeCell ref="C533:C535"/>
+    <mergeCell ref="C536:C539"/>
+    <mergeCell ref="C540:C541"/>
+    <mergeCell ref="C543:C546"/>
+    <mergeCell ref="C547:C550"/>
+    <mergeCell ref="C552:C558"/>
+    <mergeCell ref="C559:C563"/>
+    <mergeCell ref="C564:C568"/>
+    <mergeCell ref="C569:C570"/>
+    <mergeCell ref="C571:C577"/>
+    <mergeCell ref="C579:C588"/>
+    <mergeCell ref="C589:C596"/>
+    <mergeCell ref="C597:C600"/>
+    <mergeCell ref="C601:C603"/>
+    <mergeCell ref="C605:C610"/>
+    <mergeCell ref="C611:C615"/>
+    <mergeCell ref="C616:C621"/>
+    <mergeCell ref="C622:C623"/>
+    <mergeCell ref="C624:C625"/>
+    <mergeCell ref="C627:C629"/>
+    <mergeCell ref="C630:C632"/>
+    <mergeCell ref="C633:C635"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="C638:C642"/>
+    <mergeCell ref="C644:C645"/>
+    <mergeCell ref="C646:C649"/>
+    <mergeCell ref="C650:C654"/>
+    <mergeCell ref="C655:C661"/>
+    <mergeCell ref="C663:C665"/>
+    <mergeCell ref="C668:C670"/>
+    <mergeCell ref="C671:C672"/>
     <mergeCell ref="D6:D16"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="D22:D41"/>
@@ -16615,6 +23566,54 @@
     <mergeCell ref="D441:D442"/>
     <mergeCell ref="D444:D446"/>
     <mergeCell ref="D447:D450"/>
+    <mergeCell ref="D453:D454"/>
+    <mergeCell ref="D455:D464"/>
+    <mergeCell ref="D465:D472"/>
+    <mergeCell ref="D474:D477"/>
+    <mergeCell ref="D478:D480"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="D483:D485"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="D490:D497"/>
+    <mergeCell ref="D498:D501"/>
+    <mergeCell ref="D503:D504"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="D508:D510"/>
+    <mergeCell ref="D511:D519"/>
+    <mergeCell ref="D520:D525"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="D529:D531"/>
+    <mergeCell ref="D533:D535"/>
+    <mergeCell ref="D536:D539"/>
+    <mergeCell ref="D540:D541"/>
+    <mergeCell ref="D543:D546"/>
+    <mergeCell ref="D547:D550"/>
+    <mergeCell ref="D552:D558"/>
+    <mergeCell ref="D559:D563"/>
+    <mergeCell ref="D564:D568"/>
+    <mergeCell ref="D569:D570"/>
+    <mergeCell ref="D571:D577"/>
+    <mergeCell ref="D579:D588"/>
+    <mergeCell ref="D589:D596"/>
+    <mergeCell ref="D597:D600"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D610"/>
+    <mergeCell ref="D611:D615"/>
+    <mergeCell ref="D616:D621"/>
+    <mergeCell ref="D622:D623"/>
+    <mergeCell ref="D624:D625"/>
+    <mergeCell ref="D627:D629"/>
+    <mergeCell ref="D630:D632"/>
+    <mergeCell ref="D633:D635"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="D638:D642"/>
+    <mergeCell ref="D644:D645"/>
+    <mergeCell ref="D646:D649"/>
+    <mergeCell ref="D650:D654"/>
+    <mergeCell ref="D655:D661"/>
+    <mergeCell ref="D663:D665"/>
+    <mergeCell ref="D668:D670"/>
+    <mergeCell ref="D671:D672"/>
     <mergeCell ref="E6:E16"/>
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="E22:E41"/>
@@ -16700,6 +23699,54 @@
     <mergeCell ref="E441:E442"/>
     <mergeCell ref="E444:E446"/>
     <mergeCell ref="E447:E450"/>
+    <mergeCell ref="E453:E454"/>
+    <mergeCell ref="E456:E464"/>
+    <mergeCell ref="E465:E472"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E478:E480"/>
+    <mergeCell ref="E481:E482"/>
+    <mergeCell ref="E483:E485"/>
+    <mergeCell ref="E487:E488"/>
+    <mergeCell ref="E490:E497"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E503:E504"/>
+    <mergeCell ref="E505:E506"/>
+    <mergeCell ref="E508:E510"/>
+    <mergeCell ref="E511:E519"/>
+    <mergeCell ref="E520:E525"/>
+    <mergeCell ref="E526:E528"/>
+    <mergeCell ref="E529:E531"/>
+    <mergeCell ref="E533:E535"/>
+    <mergeCell ref="E536:E539"/>
+    <mergeCell ref="E540:E541"/>
+    <mergeCell ref="E543:E546"/>
+    <mergeCell ref="E547:E550"/>
+    <mergeCell ref="E552:E558"/>
+    <mergeCell ref="E559:E563"/>
+    <mergeCell ref="E564:E568"/>
+    <mergeCell ref="E569:E570"/>
+    <mergeCell ref="E571:E577"/>
+    <mergeCell ref="E579:E588"/>
+    <mergeCell ref="E589:E596"/>
+    <mergeCell ref="E597:E600"/>
+    <mergeCell ref="E601:E603"/>
+    <mergeCell ref="E605:E610"/>
+    <mergeCell ref="E611:E615"/>
+    <mergeCell ref="E616:E621"/>
+    <mergeCell ref="E622:E623"/>
+    <mergeCell ref="E624:E625"/>
+    <mergeCell ref="E627:E629"/>
+    <mergeCell ref="E630:E632"/>
+    <mergeCell ref="E633:E635"/>
+    <mergeCell ref="E636:E637"/>
+    <mergeCell ref="E638:E642"/>
+    <mergeCell ref="E644:E645"/>
+    <mergeCell ref="E646:E649"/>
+    <mergeCell ref="E650:E654"/>
+    <mergeCell ref="E655:E661"/>
+    <mergeCell ref="E663:E665"/>
+    <mergeCell ref="E668:E670"/>
+    <mergeCell ref="E671:E672"/>
     <mergeCell ref="F6:F16"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="F22:F41"/>
@@ -16779,6 +23826,55 @@
     <mergeCell ref="F441:F442"/>
     <mergeCell ref="F444:F446"/>
     <mergeCell ref="F447:F450"/>
+    <mergeCell ref="F453:F454"/>
+    <mergeCell ref="F455:F464"/>
+    <mergeCell ref="F465:F472"/>
+    <mergeCell ref="F474:F477"/>
+    <mergeCell ref="F478:F480"/>
+    <mergeCell ref="F481:F482"/>
+    <mergeCell ref="F483:F485"/>
+    <mergeCell ref="F487:F488"/>
+    <mergeCell ref="F490:F497"/>
+    <mergeCell ref="F498:F501"/>
+    <mergeCell ref="F503:F504"/>
+    <mergeCell ref="F505:F506"/>
+    <mergeCell ref="F508:F510"/>
+    <mergeCell ref="F511:F519"/>
+    <mergeCell ref="F520:F525"/>
+    <mergeCell ref="F526:F528"/>
+    <mergeCell ref="F529:F531"/>
+    <mergeCell ref="F533:F535"/>
+    <mergeCell ref="F536:F539"/>
+    <mergeCell ref="F540:F542"/>
+    <mergeCell ref="F543:F546"/>
+    <mergeCell ref="F547:F550"/>
+    <mergeCell ref="F552:F558"/>
+    <mergeCell ref="F559:F563"/>
+    <mergeCell ref="F564:F568"/>
+    <mergeCell ref="F569:F570"/>
+    <mergeCell ref="F571:F577"/>
+    <mergeCell ref="F579:F588"/>
+    <mergeCell ref="F589:F596"/>
+    <mergeCell ref="F597:F600"/>
+    <mergeCell ref="F601:F603"/>
+    <mergeCell ref="F605:F610"/>
+    <mergeCell ref="F611:F615"/>
+    <mergeCell ref="F616:F621"/>
+    <mergeCell ref="F622:F623"/>
+    <mergeCell ref="F624:F625"/>
+    <mergeCell ref="F627:F629"/>
+    <mergeCell ref="F630:F632"/>
+    <mergeCell ref="F633:F635"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="F638:F642"/>
+    <mergeCell ref="F644:F645"/>
+    <mergeCell ref="F646:F649"/>
+    <mergeCell ref="F650:F654"/>
+    <mergeCell ref="F655:F661"/>
+    <mergeCell ref="F663:F665"/>
+    <mergeCell ref="F666:F667"/>
+    <mergeCell ref="F668:F670"/>
+    <mergeCell ref="F671:F672"/>
     <mergeCell ref="G6:G16"/>
     <mergeCell ref="G17:G21"/>
     <mergeCell ref="G22:G41"/>
@@ -16857,6 +23953,54 @@
     <mergeCell ref="G441:G442"/>
     <mergeCell ref="G444:G446"/>
     <mergeCell ref="G447:G450"/>
+    <mergeCell ref="G453:G454"/>
+    <mergeCell ref="G456:G464"/>
+    <mergeCell ref="G465:G472"/>
+    <mergeCell ref="G474:G477"/>
+    <mergeCell ref="G478:G480"/>
+    <mergeCell ref="G481:G482"/>
+    <mergeCell ref="G483:G485"/>
+    <mergeCell ref="G487:G488"/>
+    <mergeCell ref="G490:G497"/>
+    <mergeCell ref="G498:G502"/>
+    <mergeCell ref="G503:G506"/>
+    <mergeCell ref="G508:G510"/>
+    <mergeCell ref="G511:G519"/>
+    <mergeCell ref="G520:G525"/>
+    <mergeCell ref="G526:G528"/>
+    <mergeCell ref="G529:G531"/>
+    <mergeCell ref="G533:G535"/>
+    <mergeCell ref="G536:G539"/>
+    <mergeCell ref="G540:G542"/>
+    <mergeCell ref="G543:G546"/>
+    <mergeCell ref="G547:G550"/>
+    <mergeCell ref="G552:G558"/>
+    <mergeCell ref="G559:G563"/>
+    <mergeCell ref="G564:G568"/>
+    <mergeCell ref="G569:G570"/>
+    <mergeCell ref="G571:G577"/>
+    <mergeCell ref="G579:G588"/>
+    <mergeCell ref="G589:G596"/>
+    <mergeCell ref="G597:G600"/>
+    <mergeCell ref="G601:G603"/>
+    <mergeCell ref="G605:G610"/>
+    <mergeCell ref="G611:G615"/>
+    <mergeCell ref="G616:G621"/>
+    <mergeCell ref="G622:G623"/>
+    <mergeCell ref="G624:G625"/>
+    <mergeCell ref="G627:G629"/>
+    <mergeCell ref="G630:G632"/>
+    <mergeCell ref="G633:G635"/>
+    <mergeCell ref="G636:G637"/>
+    <mergeCell ref="G638:G642"/>
+    <mergeCell ref="G644:G645"/>
+    <mergeCell ref="G646:G649"/>
+    <mergeCell ref="G650:G654"/>
+    <mergeCell ref="G655:G661"/>
+    <mergeCell ref="G663:G665"/>
+    <mergeCell ref="G666:G667"/>
+    <mergeCell ref="G668:G670"/>
+    <mergeCell ref="G671:G672"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="H22:H41"/>
@@ -16937,6 +24081,55 @@
     <mergeCell ref="H441:H442"/>
     <mergeCell ref="H444:H446"/>
     <mergeCell ref="H447:H450"/>
+    <mergeCell ref="H453:H454"/>
+    <mergeCell ref="H455:H464"/>
+    <mergeCell ref="H465:H472"/>
+    <mergeCell ref="H474:H477"/>
+    <mergeCell ref="H478:H480"/>
+    <mergeCell ref="H481:H482"/>
+    <mergeCell ref="H483:H485"/>
+    <mergeCell ref="H487:H488"/>
+    <mergeCell ref="H490:H497"/>
+    <mergeCell ref="H498:H501"/>
+    <mergeCell ref="H503:H504"/>
+    <mergeCell ref="H505:H506"/>
+    <mergeCell ref="H508:H510"/>
+    <mergeCell ref="H511:H519"/>
+    <mergeCell ref="H520:H525"/>
+    <mergeCell ref="H526:H528"/>
+    <mergeCell ref="H529:H531"/>
+    <mergeCell ref="H533:H535"/>
+    <mergeCell ref="H536:H539"/>
+    <mergeCell ref="H540:H542"/>
+    <mergeCell ref="H543:H546"/>
+    <mergeCell ref="H547:H550"/>
+    <mergeCell ref="H552:H558"/>
+    <mergeCell ref="H559:H563"/>
+    <mergeCell ref="H564:H568"/>
+    <mergeCell ref="H569:H570"/>
+    <mergeCell ref="H571:H577"/>
+    <mergeCell ref="H579:H588"/>
+    <mergeCell ref="H589:H596"/>
+    <mergeCell ref="H597:H600"/>
+    <mergeCell ref="H601:H603"/>
+    <mergeCell ref="H605:H610"/>
+    <mergeCell ref="H611:H615"/>
+    <mergeCell ref="H616:H621"/>
+    <mergeCell ref="H622:H623"/>
+    <mergeCell ref="H624:H625"/>
+    <mergeCell ref="H627:H629"/>
+    <mergeCell ref="H630:H632"/>
+    <mergeCell ref="H633:H635"/>
+    <mergeCell ref="H636:H637"/>
+    <mergeCell ref="H638:H642"/>
+    <mergeCell ref="H644:H645"/>
+    <mergeCell ref="H646:H649"/>
+    <mergeCell ref="H650:H654"/>
+    <mergeCell ref="H655:H661"/>
+    <mergeCell ref="H663:H665"/>
+    <mergeCell ref="H666:H667"/>
+    <mergeCell ref="H668:H670"/>
+    <mergeCell ref="H671:H672"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="I11:I16"/>
     <mergeCell ref="I18:I21"/>
@@ -17030,6 +24223,55 @@
     <mergeCell ref="I441:I442"/>
     <mergeCell ref="I445:I446"/>
     <mergeCell ref="I447:I450"/>
+    <mergeCell ref="I453:I454"/>
+    <mergeCell ref="I455:I464"/>
+    <mergeCell ref="I465:I472"/>
+    <mergeCell ref="I474:I477"/>
+    <mergeCell ref="I478:I480"/>
+    <mergeCell ref="I481:I482"/>
+    <mergeCell ref="I483:I485"/>
+    <mergeCell ref="I487:I488"/>
+    <mergeCell ref="I490:I495"/>
+    <mergeCell ref="I496:I497"/>
+    <mergeCell ref="I498:I501"/>
+    <mergeCell ref="I503:I504"/>
+    <mergeCell ref="I505:I506"/>
+    <mergeCell ref="I508:I510"/>
+    <mergeCell ref="I511:I519"/>
+    <mergeCell ref="I520:I525"/>
+    <mergeCell ref="I526:I528"/>
+    <mergeCell ref="I529:I531"/>
+    <mergeCell ref="I533:I535"/>
+    <mergeCell ref="I536:I539"/>
+    <mergeCell ref="I540:I541"/>
+    <mergeCell ref="I543:I546"/>
+    <mergeCell ref="I547:I550"/>
+    <mergeCell ref="I552:I558"/>
+    <mergeCell ref="I559:I563"/>
+    <mergeCell ref="I564:I568"/>
+    <mergeCell ref="I571:I577"/>
+    <mergeCell ref="I579:I588"/>
+    <mergeCell ref="I589:I596"/>
+    <mergeCell ref="I597:I600"/>
+    <mergeCell ref="I601:I603"/>
+    <mergeCell ref="I605:I610"/>
+    <mergeCell ref="I611:I615"/>
+    <mergeCell ref="I616:I621"/>
+    <mergeCell ref="I622:I623"/>
+    <mergeCell ref="I624:I625"/>
+    <mergeCell ref="I627:I629"/>
+    <mergeCell ref="I630:I632"/>
+    <mergeCell ref="I633:I635"/>
+    <mergeCell ref="I636:I637"/>
+    <mergeCell ref="I638:I642"/>
+    <mergeCell ref="I644:I645"/>
+    <mergeCell ref="I646:I649"/>
+    <mergeCell ref="I650:I654"/>
+    <mergeCell ref="I655:I661"/>
+    <mergeCell ref="I663:I665"/>
+    <mergeCell ref="I666:I667"/>
+    <mergeCell ref="I668:I670"/>
+    <mergeCell ref="I671:I672"/>
     <mergeCell ref="J7:J16"/>
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="J22:J41"/>
@@ -17123,6 +24365,53 @@
     <mergeCell ref="J441:J442"/>
     <mergeCell ref="J445:J446"/>
     <mergeCell ref="J447:J450"/>
+    <mergeCell ref="J453:J454"/>
+    <mergeCell ref="J455:J464"/>
+    <mergeCell ref="J465:J472"/>
+    <mergeCell ref="J474:J477"/>
+    <mergeCell ref="J479:J480"/>
+    <mergeCell ref="J483:J485"/>
+    <mergeCell ref="J487:J488"/>
+    <mergeCell ref="J490:J497"/>
+    <mergeCell ref="J498:J501"/>
+    <mergeCell ref="J503:J504"/>
+    <mergeCell ref="J505:J506"/>
+    <mergeCell ref="J508:J510"/>
+    <mergeCell ref="J511:J519"/>
+    <mergeCell ref="J520:J525"/>
+    <mergeCell ref="J526:J528"/>
+    <mergeCell ref="J529:J531"/>
+    <mergeCell ref="J533:J535"/>
+    <mergeCell ref="J536:J539"/>
+    <mergeCell ref="J540:J541"/>
+    <mergeCell ref="J543:J546"/>
+    <mergeCell ref="J547:J550"/>
+    <mergeCell ref="J552:J558"/>
+    <mergeCell ref="J559:J563"/>
+    <mergeCell ref="J564:J568"/>
+    <mergeCell ref="J571:J577"/>
+    <mergeCell ref="J579:J588"/>
+    <mergeCell ref="J589:J596"/>
+    <mergeCell ref="J597:J600"/>
+    <mergeCell ref="J601:J603"/>
+    <mergeCell ref="J605:J610"/>
+    <mergeCell ref="J611:J615"/>
+    <mergeCell ref="J616:J621"/>
+    <mergeCell ref="J622:J623"/>
+    <mergeCell ref="J624:J625"/>
+    <mergeCell ref="J627:J629"/>
+    <mergeCell ref="J630:J632"/>
+    <mergeCell ref="J633:J635"/>
+    <mergeCell ref="J636:J637"/>
+    <mergeCell ref="J638:J642"/>
+    <mergeCell ref="J644:J645"/>
+    <mergeCell ref="J646:J649"/>
+    <mergeCell ref="J650:J654"/>
+    <mergeCell ref="J655:J661"/>
+    <mergeCell ref="J663:J665"/>
+    <mergeCell ref="J666:J667"/>
+    <mergeCell ref="J668:J670"/>
+    <mergeCell ref="J671:J672"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K12:K15"/>
     <mergeCell ref="K17:K21"/>
@@ -17219,6 +24508,59 @@
     <mergeCell ref="K433:K434"/>
     <mergeCell ref="K441:K442"/>
     <mergeCell ref="K445:K446"/>
+    <mergeCell ref="K453:K454"/>
+    <mergeCell ref="K459:K461"/>
+    <mergeCell ref="K463:K464"/>
+    <mergeCell ref="K465:K472"/>
+    <mergeCell ref="K474:K475"/>
+    <mergeCell ref="K476:K477"/>
+    <mergeCell ref="K479:K480"/>
+    <mergeCell ref="K483:K485"/>
+    <mergeCell ref="K487:K488"/>
+    <mergeCell ref="K492:K493"/>
+    <mergeCell ref="K494:K495"/>
+    <mergeCell ref="K496:K497"/>
+    <mergeCell ref="K498:K501"/>
+    <mergeCell ref="K503:K504"/>
+    <mergeCell ref="K505:K506"/>
+    <mergeCell ref="K508:K509"/>
+    <mergeCell ref="K511:K513"/>
+    <mergeCell ref="K516:K519"/>
+    <mergeCell ref="K520:K521"/>
+    <mergeCell ref="K522:K523"/>
+    <mergeCell ref="K524:K525"/>
+    <mergeCell ref="K526:K527"/>
+    <mergeCell ref="K529:K531"/>
+    <mergeCell ref="K533:K535"/>
+    <mergeCell ref="K536:K539"/>
+    <mergeCell ref="K540:K541"/>
+    <mergeCell ref="K543:K544"/>
+    <mergeCell ref="K545:K546"/>
+    <mergeCell ref="K547:K548"/>
+    <mergeCell ref="K549:K550"/>
+    <mergeCell ref="K552:K554"/>
+    <mergeCell ref="K556:K558"/>
+    <mergeCell ref="K562:K563"/>
+    <mergeCell ref="K564:K568"/>
+    <mergeCell ref="K571:K576"/>
+    <mergeCell ref="K580:K581"/>
+    <mergeCell ref="K587:K588"/>
+    <mergeCell ref="K589:K590"/>
+    <mergeCell ref="K611:K612"/>
+    <mergeCell ref="K616:K618"/>
+    <mergeCell ref="K619:K621"/>
+    <mergeCell ref="K622:K623"/>
+    <mergeCell ref="K624:K625"/>
+    <mergeCell ref="K631:K632"/>
+    <mergeCell ref="K633:K635"/>
+    <mergeCell ref="K636:K637"/>
+    <mergeCell ref="K638:K639"/>
+    <mergeCell ref="K644:K645"/>
+    <mergeCell ref="K646:K648"/>
+    <mergeCell ref="K653:K654"/>
+    <mergeCell ref="K656:K660"/>
+    <mergeCell ref="K663:K665"/>
+    <mergeCell ref="K671:K672"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
